--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/INPUT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F9DA3F4-D9F3-412C-814D-1C5EF8A0F604}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD4FAA1-28BE-4E1B-8DE9-F1532959B98E}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="171">
   <si>
     <t>Program</t>
   </si>
@@ -1032,10 +1032,10 @@
   <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,11 +3669,9 @@
       <c r="H74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I74" s="9"/>
       <c r="J74" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>136</v>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD4FAA1-28BE-4E1B-8DE9-F1532959B98E}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3669B5-459D-42AC-BA0B-4A796B71345A}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="171">
   <si>
     <t>Program</t>
   </si>
@@ -1032,10 +1032,10 @@
   <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,9 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="H42" s="18" t="s">
         <v>46</v>
       </c>
@@ -4053,7 +4055,9 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="H86" s="12" t="s">
         <v>46</v>
       </c>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3669B5-459D-42AC-BA0B-4A796B71345A}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2041C488-B4B7-4F35-9497-EB122E24563E}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="173">
   <si>
     <t>Program</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Course to place</t>
+  </si>
+  <si>
+    <t>ACCO 220</t>
+  </si>
+  <si>
+    <t>Financial and Managerial Accounting</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1035,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,568 +2582,559 @@
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="8">
-        <v>3</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="U43" s="3"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="11">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D45" s="11">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="F45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="U44" s="3"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>1.5</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="9" t="s">
+      <c r="E46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="U45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>1.5</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="E47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="U46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="8">
-        <v>3</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="9" t="s">
+      <c r="G48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="U47" s="3"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="11">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="D49" s="11">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="F49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="8">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="G50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="11">
-        <v>3</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="F51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>3.75</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="U51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="G52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="11">
-        <v>3</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="8">
-        <v>3</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="D54" s="8">
+        <v>3</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="11">
-        <v>3</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D55" s="11">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="F55" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="8">
-        <v>3</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="F56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="11">
-        <v>3</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="D57" s="11">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="F57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="8">
-        <v>3</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="11">
-        <v>3</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="F58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3146,468 +3143,468 @@
         <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="11">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="11">
-        <v>3</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="D60" s="11">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="8">
-        <v>3</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K60" s="9" t="s">
+      <c r="D61" s="8">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="11">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="D62" s="11">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>3.5</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="F63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>3.5</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="8">
-        <v>3</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="D65" s="8">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="G65" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>3.5</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="F66" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>3.5</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="F67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>3.5</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="F68" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <v>3.5</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="F69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>3.75</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="F70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>3.5</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="F71" s="7"/>
+      <c r="G71" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>3.5</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" s="9" t="s">
+      <c r="F72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3616,19 +3613,19 @@
         <v>113</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>45</v>
@@ -3640,7 +3637,7 @@
         <v>46</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>136</v>
@@ -3651,7 +3648,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>100</v>
@@ -3660,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>45</v>
@@ -3671,9 +3668,11 @@
       <c r="H74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J74" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>136</v>
@@ -3684,431 +3683,438 @@
         <v>113</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="8">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>3.5</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="E76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>3.5</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="8">
-        <v>3</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="D78" s="8">
+        <v>3</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="F78" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="11">
-        <v>3</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="D79" s="11">
+        <v>3</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="F79" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>1</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="7" t="s">
+      <c r="E80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="G80" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>3.5</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E81" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="F81" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="8">
-        <v>3</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="F82" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="11">
-        <v>3</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82" s="12" t="s">
+      <c r="D83" s="11">
+        <v>3</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="8">
-        <v>3</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" s="9" t="s">
+      <c r="D84" s="8">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="11">
-        <v>3</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="D85" s="11">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="8">
-        <v>3</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" s="9" t="s">
+      <c r="D86" s="8">
+        <v>3</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="9" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="11">
-        <v>3</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J86" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="20">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>165</v>
-      </c>
+      <c r="B87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="11">
+        <v>3</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="H87" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="I87" s="12" t="s">
         <v>46</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K87" t="s">
-        <v>166</v>
+      <c r="K87" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D88" s="22">
+      <c r="B88" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="20">
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>46</v>
@@ -4127,14 +4133,14 @@
       <c r="A89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D89" s="20">
+      <c r="B89" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="22">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>46</v>
@@ -4150,17 +4156,17 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
-        <v>134</v>
+      <c r="A90" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D90" s="20">
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>46</v>
@@ -4179,14 +4185,14 @@
       <c r="A91" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>163</v>
+      <c r="B91" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="D91" s="20">
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>46</v>
@@ -4205,14 +4211,14 @@
       <c r="A92" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>164</v>
+      <c r="B92" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="D92" s="20">
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>46</v>
@@ -4227,10 +4233,36 @@
         <v>166</v>
       </c>
     </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="20">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K88">
-      <sortCondition ref="A1:A132"/>
+  <autoFilter ref="A1:K133" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K89">
+      <sortCondition ref="A1:A133"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2041C488-B4B7-4F35-9497-EB122E24563E}"/>
+  <xr:revisionPtr revIDLastSave="504" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4023CAF-5077-48ED-A92C-A8AD7378D3C0}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="615" windowWidth="23250" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="173">
-  <si>
-    <t>Program</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="175">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -558,6 +555,15 @@
   </si>
   <si>
     <t>Financial and Managerial Accounting</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Program_for_WT</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1044,10 @@
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,67 +1061,67 @@
     <col min="7" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Q1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
         <v>168</v>
-      </c>
-      <c r="S1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="D2" s="11">
         <v>3</v>
@@ -1124,924 +1130,924 @@
       <c r="F2" s="10"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R2">
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="17">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="11">
         <v>1.5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R4">
         <v>4</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="17">
         <v>1.5</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R5">
         <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="17">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R7">
         <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="11">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="17">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="17">
-        <v>3</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="17">
-        <v>3</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="17">
         <v>3</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="11">
         <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="17">
         <v>3.5</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="17">
         <v>3</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11">
         <v>3</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11">
         <v>3.5</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="17">
         <v>3.5</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="11">
         <v>3.5</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F24" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="11">
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="17">
         <v>3</v>
@@ -2050,28 +2056,28 @@
       <c r="F26" s="16"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="11">
         <v>3</v>
@@ -2080,28 +2086,28 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
@@ -2110,280 +2116,280 @@
       <c r="F28" s="16"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11">
         <v>3.5</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="17">
         <v>3.5</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="11">
-        <v>3</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="17">
         <v>3</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="17">
         <v>3.5</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="11">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="11">
-        <v>3</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="F35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="17">
         <v>3</v>
@@ -2392,28 +2398,28 @@
       <c r="F36" s="16"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -2422,28 +2428,28 @@
       <c r="F37" s="10"/>
       <c r="G37" s="19"/>
       <c r="H37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U37" s="3"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="17">
         <v>3</v>
@@ -2452,28 +2458,28 @@
       <c r="F38" s="16"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U38" s="3"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="11">
         <v>3</v>
@@ -2482,26 +2488,26 @@
       <c r="F39" s="10"/>
       <c r="G39" s="19"/>
       <c r="H39" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="17">
         <v>3</v>
@@ -2511,25 +2517,25 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U40" s="3"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="11">
         <v>3</v>
@@ -2539,25 +2545,25 @@
       <c r="G41" s="19"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U41" s="3"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="17">
         <v>3</v>
@@ -2565,31 +2571,31 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="D43" s="11">
         <v>3</v>
@@ -2600,22 +2606,22 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
@@ -2624,564 +2630,564 @@
       <c r="F44" s="7"/>
       <c r="G44" s="13"/>
       <c r="H44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="11">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="11">
-        <v>3</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U45" s="3"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="8">
         <v>1.5</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U46" s="3"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="11">
         <v>1.5</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="8">
-        <v>3</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="11">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="11">
-        <v>3</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="F49" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U49" s="3"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="8">
-        <v>3</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G50" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U50" s="3"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="11">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F51" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="8">
         <v>3.75</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U52" s="3"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="11">
-        <v>3</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="F53" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U53" s="3"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="8">
         <v>3</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U54" s="3"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="11">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="11">
-        <v>3</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F55" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U55" s="3"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="8">
-        <v>3</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F56" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="11">
         <v>3</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="8">
-        <v>3</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="11">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="11">
-        <v>3</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="11">
         <v>3</v>
@@ -3190,27 +3196,27 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="8">
         <v>3</v>
@@ -3219,27 +3225,27 @@
       <c r="F61" s="7"/>
       <c r="G61" s="13"/>
       <c r="H61" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" s="11">
         <v>3</v>
@@ -3248,723 +3254,723 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="8">
         <v>3.5</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="11">
         <v>3.5</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="8">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="8">
-        <v>3</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="F65" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="11">
         <v>3.5</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="8">
         <v>3.5</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="11">
         <v>3.5</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="8">
         <v>3.5</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" s="11">
         <v>3.75</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="8">
         <v>3.5</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="11">
         <v>3.5</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="8">
         <v>3.5</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="8">
-        <v>3</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="F74" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="8">
         <v>3.5</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="11">
         <v>3.5</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="8">
+        <v>3</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="8">
-        <v>3</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="F78" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D79" s="11">
         <v>3</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="11">
         <v>3.5</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="8">
-        <v>3</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F82" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D83" s="11">
         <v>3</v>
@@ -3973,27 +3979,27 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D84" s="8">
         <v>3</v>
@@ -4002,27 +4008,27 @@
       <c r="F84" s="7"/>
       <c r="G84" s="13"/>
       <c r="H84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D85" s="11">
         <v>3</v>
@@ -4031,27 +4037,27 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D86" s="8">
         <v>3</v>
@@ -4060,27 +4066,27 @@
       <c r="F86" s="7"/>
       <c r="G86" s="13"/>
       <c r="H86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="11">
         <v>3</v>
@@ -4088,175 +4094,175 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D88" s="20">
         <v>16</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" t="s">
         <v>165</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="22">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90" s="20">
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D91" s="20">
         <v>16</v>
       </c>
       <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" t="s">
         <v>165</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K91" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="20">
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="20">
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4023CAF-5077-48ED-A92C-A8AD7378D3C0}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55552931-656A-45D7-B5C9-41FC9C9E40E1}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="615" windowWidth="23250" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="180">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -564,6 +564,21 @@
   </si>
   <si>
     <t>Program_for_WT</t>
+  </si>
+  <si>
+    <t>Operations Research II</t>
+  </si>
+  <si>
+    <t>INDU 330</t>
+  </si>
+  <si>
+    <t>INDU 423</t>
+  </si>
+  <si>
+    <t>Inventory Control</t>
+  </si>
+  <si>
+    <t>Engineering Management</t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -685,11 +700,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,11 +787,83 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1041,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C99:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,23 +1262,17 @@
         <v>173</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1283,7 @@
         <v>45</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>133</v>
@@ -1208,25 +1304,19 @@
         <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D4" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>45</v>
@@ -1235,7 +1325,7 @@
         <v>45</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>133</v>
@@ -1256,25 +1346,19 @@
         <v>173</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D5" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>45</v>
@@ -1283,7 +1367,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>112</v>
@@ -1300,38 +1384,32 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>138</v>
+      <c r="B6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>112</v>
@@ -1348,38 +1426,32 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>138</v>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>112</v>
@@ -1396,38 +1468,28 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>135</v>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="U8" s="3"/>
     </row>
@@ -1436,16 +1498,16 @@
         <v>173</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D9" s="17">
         <v>3</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>44</v>
@@ -1463,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U9" s="3"/>
     </row>
@@ -1472,13 +1534,13 @@
         <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>44</v>
@@ -1490,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>45</v>
@@ -1508,16 +1570,16 @@
         <v>173</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D11" s="17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>44</v>
@@ -1526,7 +1588,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>45</v>
@@ -1535,7 +1597,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -1544,25 +1606,25 @@
         <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>45</v>
@@ -1580,22 +1642,22 @@
         <v>173</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D13" s="17">
         <v>3</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>45</v>
@@ -1616,16 +1678,16 @@
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D14" s="11">
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>44</v>
@@ -1648,253 +1710,249 @@
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>135</v>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>135</v>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>135</v>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="11">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>135</v>
+      <c r="B18" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="17">
-        <v>3</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>135</v>
       </c>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="11">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>135</v>
       </c>
       <c r="U21" s="3"/>
@@ -1904,16 +1962,16 @@
         <v>173</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D22" s="17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>44</v>
@@ -1940,19 +1998,19 @@
         <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D23" s="11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>44</v>
@@ -1961,10 +2019,10 @@
         <v>44</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>135</v>
@@ -1972,37 +2030,37 @@
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="11">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="B24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>135</v>
       </c>
       <c r="U24" s="3"/>
@@ -2012,25 +2070,29 @@
         <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11">
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G25" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="J25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2044,28 +2106,34 @@
         <v>173</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="U26" s="3"/>
     </row>
@@ -2074,129 +2142,141 @@
         <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="D27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="17">
-        <v>3</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>149</v>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="B29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17">
         <v>3.5</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>135</v>
       </c>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="11">
         <v>3.5</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="18" t="s">
+      <c r="E30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>135</v>
       </c>
       <c r="U30" s="3"/>
@@ -2206,19 +2286,19 @@
         <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D31" s="11">
         <v>3</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>44</v>
@@ -2230,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>135</v>
@@ -2238,37 +2318,33 @@
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="17">
-        <v>3</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="18" t="s">
+      <c r="B32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>135</v>
       </c>
       <c r="U32" s="3"/>
@@ -2278,21 +2354,21 @@
         <v>173</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D33" s="11">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -2302,7 +2378,7 @@
         <v>45</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>135</v>
@@ -2314,16 +2390,16 @@
         <v>173</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D34" s="17">
         <v>3.5</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>44</v>
@@ -2350,21 +2426,21 @@
         <v>173</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D35" s="11">
         <v>3</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -2386,28 +2462,34 @@
         <v>173</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D36" s="17">
         <v>3</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="E36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="H36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="U36" s="3"/>
     </row>
@@ -2416,28 +2498,34 @@
         <v>173</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D37" s="11">
-        <v>3</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="H37" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="U37" s="3"/>
     </row>
@@ -2446,17 +2534,23 @@
         <v>173</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D38" s="17">
-        <v>3</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2561,7 @@
         <v>45</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="U38" s="3"/>
     </row>
@@ -2476,26 +2570,34 @@
         <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D39" s="11">
         <v>3</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="H39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="J39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="U39" s="3"/>
     </row>
@@ -2504,7 +2606,7 @@
         <v>173</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>150</v>
@@ -2515,7 +2617,9 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="I40" s="18" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2636,7 @@
         <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>150</v>
@@ -2543,10 +2647,10 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="H41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="12" t="s">
         <v>45</v>
       </c>
@@ -2556,306 +2660,290 @@
       <c r="U41" s="3"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="17">
-        <v>3</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>138</v>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="8">
+        <v>16</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="11">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>138</v>
+      <c r="B43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="8">
+        <v>16</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="8">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>149</v>
+      <c r="A44" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="11">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="11">
-        <v>3</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="F45" s="10" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U45" s="3"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>138</v>
+      <c r="A46" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="U46" s="3"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>138</v>
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="8">
-        <v>3</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>138</v>
+      <c r="A48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="11">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="11">
-        <v>3</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>138</v>
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="U49" s="3"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="8">
-        <v>3</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>135</v>
+      <c r="A50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="11">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="U50" s="3"/>
     </row>
@@ -2864,25 +2952,19 @@
         <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D51" s="11">
         <v>3</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>45</v>
@@ -2891,7 +2973,7 @@
         <v>45</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="U51" s="3"/>
     </row>
@@ -2900,25 +2982,19 @@
         <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>45</v>
@@ -2927,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="U52" s="3"/>
     </row>
@@ -2936,16 +3012,16 @@
         <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D53" s="11">
         <v>3</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>44</v>
@@ -2963,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U53" s="3"/>
     </row>
@@ -2972,13 +3048,13 @@
         <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D54" s="8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>44</v>
@@ -2990,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>45</v>
@@ -3008,16 +3084,16 @@
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D55" s="11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>44</v>
@@ -3026,7 +3102,7 @@
         <v>45</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>45</v>
@@ -3035,7 +3111,7 @@
         <v>45</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U55" s="3"/>
     </row>
@@ -3044,19 +3120,19 @@
         <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D56" s="8">
         <v>3</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>45</v>
@@ -3071,7 +3147,7 @@
         <v>45</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -3079,16 +3155,16 @@
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D57" s="11">
         <v>3</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>44</v>
@@ -3114,22 +3190,22 @@
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D58" s="8">
         <v>3</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>45</v>
@@ -3149,16 +3225,16 @@
         <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D59" s="11">
         <v>3</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>44</v>
@@ -3180,61 +3256,73 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="11">
-        <v>3</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>149</v>
+      <c r="A60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="8">
-        <v>3</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>149</v>
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="11">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -3242,17 +3330,19 @@
         <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D62" s="11">
         <v>3</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="H62" s="12" t="s">
         <v>45</v>
       </c>
@@ -3263,7 +3353,7 @@
         <v>45</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -3271,28 +3361,28 @@
         <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D63" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>45</v>
@@ -3306,22 +3396,22 @@
         <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D64" s="11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>44</v>
@@ -3341,22 +3431,22 @@
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D65" s="8">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>44</v>
@@ -3376,25 +3466,25 @@
         <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D66" s="11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>45</v>
@@ -3407,72 +3497,72 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67" s="9" t="s">
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="11">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="A68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="C68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3481,16 +3571,16 @@
         <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D69" s="8">
         <v>3.5</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>44</v>
@@ -3502,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>45</v>
@@ -3516,16 +3606,16 @@
         <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D70" s="11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>44</v>
@@ -3534,7 +3624,7 @@
         <v>44</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>45</v>
@@ -3551,18 +3641,20 @@
         <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D71" s="8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="G71" s="13" t="s">
         <v>44</v>
       </c>
@@ -3573,7 +3665,7 @@
         <v>45</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>135</v>
@@ -3584,16 +3676,16 @@
         <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D72" s="11">
         <v>3.5</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>44</v>
@@ -3602,7 +3694,7 @@
         <v>44</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>45</v>
@@ -3619,19 +3711,19 @@
         <v>112</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D73" s="8">
         <v>3.5</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>44</v>
@@ -3650,37 +3742,37 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="8">
-        <v>3</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K74" s="9" t="s">
+      <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3689,16 +3781,16 @@
         <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D75" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>44</v>
@@ -3709,7 +3801,9 @@
       <c r="H75" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I75" s="9"/>
+      <c r="I75" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J75" s="9" t="s">
         <v>45</v>
       </c>
@@ -3718,142 +3812,140 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="8">
+      <c r="A76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="8">
         <v>3.5</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="11">
+      <c r="E77" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="11">
         <v>3.5</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="8">
-        <v>3</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78" s="9" t="s">
+      <c r="E78" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="11">
-        <v>3</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3862,22 +3954,22 @@
         <v>112</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D80" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>44</v>
@@ -3893,37 +3985,35 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="A81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="8">
+        <v>3</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3932,22 +4022,22 @@
         <v>112</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D82" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>44</v>
+      <c r="G82" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>44</v>
@@ -3967,17 +4057,23 @@
         <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D83" s="11">
-        <v>3</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H83" s="12" t="s">
         <v>45</v>
       </c>
@@ -3988,7 +4084,7 @@
         <v>45</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3996,19 +4092,25 @@
         <v>112</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D84" s="8">
         <v>3</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="13"/>
+      <c r="E84" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="H84" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>45</v>
@@ -4017,7 +4119,7 @@
         <v>45</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4025,28 +4127,34 @@
         <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D85" s="11">
         <v>3</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="12"/>
+      <c r="E85" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="H85" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4054,28 +4162,34 @@
         <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D86" s="8">
-        <v>3</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="H86" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>45</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,18 +4197,22 @@
         <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D87" s="11">
-        <v>3</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G87" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>45</v>
@@ -4106,33 +4224,42 @@
         <v>45</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>161</v>
+        <v>34</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="D88" s="20">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
-        <v>164</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K88" t="s">
-        <v>165</v>
+        <v>3</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" s="28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4140,15 +4267,18 @@
         <v>112</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="D89" s="22">
-        <v>16</v>
-      </c>
-      <c r="E89" t="s">
-        <v>161</v>
-      </c>
-      <c r="G89" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I89" s="12" t="s">
@@ -4157,70 +4287,76 @@
       <c r="J89" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K89" t="s">
-        <v>165</v>
+      <c r="K89" s="25" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="D90" s="20">
-        <v>16</v>
-      </c>
-      <c r="E90" t="s">
-        <v>162</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90" t="s">
-        <v>165</v>
+        <v>3</v>
+      </c>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K90" s="28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
-        <v>173</v>
+      <c r="A91" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>161</v>
       </c>
+      <c r="C91" s="26"/>
       <c r="D91" s="20">
         <v>16</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="26" t="s">
         <v>164</v>
       </c>
+      <c r="F91" s="26"/>
       <c r="G91" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="H91" s="26"/>
       <c r="I91" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J91" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="26" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>173</v>
+      <c r="A92" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="22">
         <v>16</v>
       </c>
       <c r="E92" t="s">
@@ -4240,8 +4376,8 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>173</v>
+      <c r="A93" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>163</v>
@@ -4250,7 +4386,7 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>45</v>
@@ -4265,12 +4401,97 @@
         <v>165</v>
       </c>
     </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="31">
+        <v>3</v>
+      </c>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="35">
+        <v>3</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="39"/>
+      <c r="D96" s="40">
+        <v>16</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="39"/>
+      <c r="G96" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K133" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K89">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K96">
       <sortCondition ref="A1:A133"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PRG">
+      <formula>NOT(ISERROR(SEARCH("PRG",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ENG">
+      <formula>NOT(ISERROR(SEARCH("ENG",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55552931-656A-45D7-B5C9-41FC9C9E40E1}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB2796F-4F16-4822-88BA-126949AFC8F4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="180">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -719,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,17 +788,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,10 +873,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,10 +1141,10 @@
   <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C99:C100"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,7 +2655,7 @@
       <c r="U41" s="3"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>173</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2690,7 +2685,7 @@
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2720,7 +2715,7 @@
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="36" t="s">
         <v>173</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -4234,22 +4229,22 @@
       <c r="B88" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="20">
         <v>3</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E88" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I88" s="9" t="s">
@@ -4258,7 +4253,7 @@
       <c r="J88" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K88" s="28" t="s">
+      <c r="K88" s="27" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4298,16 +4293,16 @@
       <c r="B90" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D90" s="20">
         <v>3</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="28" t="s">
+      <c r="H90" s="27" t="s">
         <v>45</v>
       </c>
       <c r="I90" s="9" t="s">
@@ -4316,7 +4311,7 @@
       <c r="J90" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K90" s="28" t="s">
+      <c r="K90" s="27" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4327,25 +4322,22 @@
       <c r="B91" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="26"/>
       <c r="D91" s="20">
         <v>16</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" t="s">
         <v>164</v>
       </c>
-      <c r="F91" s="26"/>
       <c r="G91" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="26"/>
       <c r="I91" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J91" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="26" t="s">
+      <c r="K91" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4402,24 +4394,26 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="29" t="s">
+      <c r="A94" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D94" s="31">
-        <v>3</v>
-      </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J94" s="32" t="s">
+      <c r="D94" s="30">
+        <v>3</v>
+      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K94" s="18" t="s">
@@ -4427,24 +4421,26 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="33" t="s">
+      <c r="A95" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="35">
-        <v>3</v>
-      </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J95" s="36" t="s">
+      <c r="D95" s="34">
+        <v>3</v>
+      </c>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="12" t="s">
@@ -4452,26 +4448,28 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="38" t="s">
+      <c r="A96" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="40">
+      <c r="C96" s="38"/>
+      <c r="D96" s="39">
         <v>16</v>
       </c>
-      <c r="E96" s="39" t="s">
+      <c r="E96" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F96" s="39"/>
-      <c r="G96" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J96" s="36" t="s">
+      <c r="F96" s="38"/>
+      <c r="G96" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="38"/>
+      <c r="I96" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K96" s="23" t="s">

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB2796F-4F16-4822-88BA-126949AFC8F4}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04C06A70-17D4-46C8-B092-B0607E10103D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25815" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$133</definedName>
   </definedNames>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="223">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -579,13 +582,142 @@
   </si>
   <si>
     <t>Engineering Management</t>
+  </si>
+  <si>
+    <t>Aero A: Aerodynamics and Propulsion</t>
+  </si>
+  <si>
+    <t>Aero B: Aerospace Structures and Materials</t>
+  </si>
+  <si>
+    <t>Aero C: Avionics and Aerospace Systems</t>
+  </si>
+  <si>
+    <t>AERO 201</t>
+  </si>
+  <si>
+    <t>AERO 290</t>
+  </si>
+  <si>
+    <t>AERO 371</t>
+  </si>
+  <si>
+    <t>AERO 390</t>
+  </si>
+  <si>
+    <t>AERO 417</t>
+  </si>
+  <si>
+    <t>AERO 490a</t>
+  </si>
+  <si>
+    <t>AERO 490b</t>
+  </si>
+  <si>
+    <t>AERO 446</t>
+  </si>
+  <si>
+    <t>AERO 455</t>
+  </si>
+  <si>
+    <t>AERO 462</t>
+  </si>
+  <si>
+    <t>AERO 464</t>
+  </si>
+  <si>
+    <t>AERO 465</t>
+  </si>
+  <si>
+    <t>AERO 481</t>
+  </si>
+  <si>
+    <t>MECH 461</t>
+  </si>
+  <si>
+    <t>TE1_AeroA</t>
+  </si>
+  <si>
+    <t>TE2_AeroA</t>
+  </si>
+  <si>
+    <t>AERO 431</t>
+  </si>
+  <si>
+    <t>AERO 486</t>
+  </si>
+  <si>
+    <t>AERO 487</t>
+  </si>
+  <si>
+    <t>MECH 412</t>
+  </si>
+  <si>
+    <t>MECH 460</t>
+  </si>
+  <si>
+    <t>AERO 482</t>
+  </si>
+  <si>
+    <t>AERO 483</t>
+  </si>
+  <si>
+    <t>COEN 212</t>
+  </si>
+  <si>
+    <t>COEN 243</t>
+  </si>
+  <si>
+    <t>COEN 244</t>
+  </si>
+  <si>
+    <t>COEN 311</t>
+  </si>
+  <si>
+    <t>COEN 352</t>
+  </si>
+  <si>
+    <t>ELEC 242</t>
+  </si>
+  <si>
+    <t>ELEC 273</t>
+  </si>
+  <si>
+    <t>ELEC 342</t>
+  </si>
+  <si>
+    <t>ELEC 483</t>
+  </si>
+  <si>
+    <t>SOEN 341</t>
+  </si>
+  <si>
+    <t>TE1_AeroC</t>
+  </si>
+  <si>
+    <t>TE2_AeroC</t>
+  </si>
+  <si>
+    <t>TE3_AeroC</t>
+  </si>
+  <si>
+    <t>Technical Elective 1</t>
+  </si>
+  <si>
+    <t>Technical Elective 3</t>
+  </si>
+  <si>
+    <t>Technical Elective 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC 481 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,8 +741,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +770,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -719,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,9 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,9 +977,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,9 +985,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,8 +996,95 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,6 +1122,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+      <xxl21:relativeUrl r:id="rId3"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Master 2026-27"/>
+      <sheetName val="Mechanical Engineering 2026-27"/>
+      <sheetName val="Industrial  Engineering 2026-27"/>
+      <sheetName val="Aerospace - Option A 2026-27"/>
+      <sheetName val="Aerospace - Option B 2026-27"/>
+      <sheetName val="Aerospace - Option C 2026-27"/>
+      <sheetName val="ECP courses"/>
+      <sheetName val="Complete List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,24 +1422,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:U240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94:A96"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="10" width="11.85546875" customWidth="1"/>
+    <col min="7" max="10" width="11.85546875" style="23" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1253,34 +1537,34 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="17">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>133</v>
       </c>
       <c r="Q3" t="s">
@@ -1337,31 +1621,31 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="17">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>149</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -1379,31 +1663,31 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="17">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>149</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -1435,7 +1719,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1747,7 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1477,49 +1761,49 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="17">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="18" t="s">
+      <c r="F9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U9" s="3"/>
@@ -1561,37 +1845,37 @@
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>1.5</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U11" s="3"/>
@@ -1633,37 +1917,37 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="17">
-        <v>3</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="18" t="s">
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U13" s="3"/>
@@ -1741,37 +2025,37 @@
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="17">
-        <v>3</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="18" t="s">
+      <c r="F16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U16" s="3"/>
@@ -1813,33 +2097,33 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="18" t="s">
+      <c r="D18" s="16">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>138</v>
       </c>
       <c r="U18" s="3"/>
@@ -1881,109 +2165,109 @@
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="17">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="18" t="s">
+      <c r="F20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="17">
-        <v>3</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="18" t="s">
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="17">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="16">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="18" t="s">
+      <c r="F22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U22" s="3"/>
@@ -2025,37 +2309,37 @@
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>3.5</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="F24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U24" s="3"/>
@@ -2097,37 +2381,37 @@
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="18" t="s">
+      <c r="F26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U26" s="3"/>
@@ -2205,37 +2489,37 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>3.5</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="18" t="s">
+      <c r="F29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U29" s="3"/>
@@ -2381,37 +2665,37 @@
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>3.5</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="18" t="s">
+      <c r="F34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U34" s="3"/>
@@ -2453,37 +2737,37 @@
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="17">
-        <v>3</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="16">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="18" t="s">
+      <c r="F36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U36" s="3"/>
@@ -2507,7 +2791,7 @@
       <c r="F37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -2525,37 +2809,37 @@
       <c r="U37" s="3"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>3.5</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38" s="18" t="s">
+      <c r="F38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="17" t="s">
         <v>135</v>
       </c>
       <c r="U38" s="3"/>
@@ -2579,7 +2863,7 @@
       <c r="F39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -2597,31 +2881,31 @@
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="17">
-        <v>3</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40" s="18" t="s">
+      <c r="D40" s="16">
+        <v>3</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>150</v>
       </c>
       <c r="U40" s="3"/>
@@ -2641,7 +2925,7 @@
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="19"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
         <v>45</v>
       </c>
@@ -2655,94 +2939,94 @@
       <c r="U41" s="3"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="32" t="s">
         <v>173</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="8">
         <v>16</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="21" t="s">
         <v>165</v>
       </c>
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="32" t="s">
         <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="8">
         <v>16</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="23"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="23"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="21" t="s">
         <v>165</v>
       </c>
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>3.5</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="18" t="s">
+      <c r="F44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="17" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="12" t="s">
@@ -2787,7 +3071,7 @@
       <c r="U45" s="3"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2837,7 +3121,7 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
         <v>45</v>
       </c>
@@ -2897,7 +3181,7 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
         <v>45</v>
       </c>
@@ -2987,7 +3271,7 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
         <v>45</v>
       </c>
@@ -3057,7 +3341,7 @@
       <c r="F54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H54" s="9" t="s">
@@ -3129,7 +3413,7 @@
       <c r="F56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H56" s="9" t="s">
@@ -3199,7 +3483,7 @@
       <c r="F58" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H58" s="9" t="s">
@@ -3269,7 +3553,7 @@
       <c r="F60" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H60" s="9" t="s">
@@ -3370,7 +3654,7 @@
       <c r="F63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H63" s="9" t="s">
@@ -3440,7 +3724,7 @@
       <c r="F65" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H65" s="9" t="s">
@@ -3545,7 +3829,7 @@
       <c r="F68" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H68" s="9" t="s">
@@ -3580,7 +3864,7 @@
       <c r="F69" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H69" s="9" t="s">
@@ -3650,7 +3934,7 @@
       <c r="F71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H71" s="9" t="s">
@@ -3720,7 +4004,7 @@
       <c r="F73" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="9" t="s">
@@ -3790,7 +4074,7 @@
       <c r="F75" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H75" s="9" t="s">
@@ -3858,7 +4142,7 @@
         <v>93</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H77" s="9" t="s">
@@ -3928,7 +4212,7 @@
       <c r="F79" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H79" s="9" t="s">
@@ -3963,7 +4247,7 @@
       <c r="F80" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H80" s="9" t="s">
@@ -3998,7 +4282,7 @@
       <c r="F81" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H81" s="9" t="s">
@@ -4101,7 +4385,7 @@
       <c r="F84" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H84" s="9" t="s">
@@ -4226,25 +4510,25 @@
       <c r="A88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="20">
-        <v>3</v>
-      </c>
-      <c r="E88" s="26" t="s">
+      <c r="D88" s="18">
+        <v>3</v>
+      </c>
+      <c r="E88" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F88" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" s="27" t="s">
+      <c r="F88" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I88" s="9" t="s">
@@ -4253,7 +4537,7 @@
       <c r="J88" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K88" s="27" t="s">
+      <c r="K88" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4261,19 +4545,19 @@
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D89" s="22">
-        <v>3</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
+      <c r="D89" s="20">
+        <v>3</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I89" s="12" t="s">
@@ -4282,7 +4566,7 @@
       <c r="J89" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K89" s="25" t="s">
+      <c r="K89" s="23" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4290,19 +4574,19 @@
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="20">
-        <v>3</v>
-      </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="27" t="s">
+      <c r="D90" s="18">
+        <v>3</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I90" s="9" t="s">
@@ -4311,7 +4595,7 @@
       <c r="J90" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K90" s="27" t="s">
+      <c r="K90" s="25" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4319,10 +4603,10 @@
       <c r="A91" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="18">
         <v>16</v>
       </c>
       <c r="E91" t="s">
@@ -4345,10 +4629,10 @@
       <c r="A92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="20">
         <v>16</v>
       </c>
       <c r="E92" t="s">
@@ -4371,10 +4655,10 @@
       <c r="A93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="18">
         <v>16</v>
       </c>
       <c r="E93" t="s">
@@ -4394,53 +4678,53 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D94" s="30">
-        <v>3</v>
-      </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J94" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94" s="18" t="s">
+      <c r="D94" s="28">
+        <v>3</v>
+      </c>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="34">
-        <v>3</v>
-      </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J95" s="35" t="s">
+      <c r="D95" s="31">
+        <v>3</v>
+      </c>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="67" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="12" t="s">
@@ -4448,31 +4732,5716 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39">
+      <c r="C96" s="34"/>
+      <c r="D96" s="35">
         <v>16</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F96" s="38"/>
-      <c r="G96" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="38"/>
-      <c r="I96" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J96" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96" s="23" t="s">
+      <c r="F96" s="34"/>
+      <c r="G96" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="58">
+        <v>3</v>
+      </c>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J97" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="P97" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q97" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="R97" s="60">
+        <v>2</v>
+      </c>
+      <c r="S97" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U97" s="61"/>
+    </row>
+    <row r="98" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="64">
+        <v>3</v>
+      </c>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I98" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="P98" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q98" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="R98" s="60">
+        <v>3</v>
+      </c>
+      <c r="S98" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U98" s="61"/>
+    </row>
+    <row r="99" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="58">
+        <v>3</v>
+      </c>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="P99" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q99" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="R99" s="60">
+        <v>4</v>
+      </c>
+      <c r="S99" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="U99" s="61"/>
+    </row>
+    <row r="100" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="64">
+        <v>3</v>
+      </c>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I100" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q100" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="R100" s="60">
+        <v>2</v>
+      </c>
+      <c r="S100" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U100" s="61"/>
+    </row>
+    <row r="101" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="64">
+        <v>3</v>
+      </c>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I101" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="P101" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q101" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="R101" s="60">
+        <v>3</v>
+      </c>
+      <c r="S101" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U101" s="61"/>
+    </row>
+    <row r="102" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="58">
+        <v>3</v>
+      </c>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="P102" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q102" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="R102" s="60">
+        <v>4</v>
+      </c>
+      <c r="S102" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="U102" s="61"/>
+    </row>
+    <row r="103" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="58">
+        <v>3</v>
+      </c>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U103" s="61"/>
+    </row>
+    <row r="104" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="64">
+        <v>3</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I104" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K104" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U104" s="61"/>
+    </row>
+    <row r="105" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="E105" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I105" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U105" s="61"/>
+    </row>
+    <row r="106" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E106" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U106" s="61"/>
+    </row>
+    <row r="107" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="58">
+        <v>3</v>
+      </c>
+      <c r="E107" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I107" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K107" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U107" s="61"/>
+    </row>
+    <row r="108" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="64">
+        <v>3</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J108" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U108" s="61"/>
+    </row>
+    <row r="109" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="58">
+        <v>3</v>
+      </c>
+      <c r="E109" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I109" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J109" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K109" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U109" s="61"/>
+    </row>
+    <row r="110" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="58">
+        <v>3</v>
+      </c>
+      <c r="E110" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U110" s="61"/>
+    </row>
+    <row r="111" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="64">
+        <v>3</v>
+      </c>
+      <c r="E111" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I111" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K111" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U111" s="61"/>
+    </row>
+    <row r="112" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="58">
+        <v>3</v>
+      </c>
+      <c r="E112" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K112" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U112" s="61"/>
+    </row>
+    <row r="113" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="64">
+        <v>3</v>
+      </c>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I113" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="U113" s="61"/>
+    </row>
+    <row r="114" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="38">
+        <v>3</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J114" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P114" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q114" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="R114" s="40">
+        <v>2</v>
+      </c>
+      <c r="S114" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U114" s="41"/>
+    </row>
+    <row r="115" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="44">
+        <v>3</v>
+      </c>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I115" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J115" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P115" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q115" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R115" s="40">
+        <v>3</v>
+      </c>
+      <c r="S115" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="U115" s="41"/>
+    </row>
+    <row r="116" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="38">
+        <v>3</v>
+      </c>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J116" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P116" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q116" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="R116" s="40">
+        <v>4</v>
+      </c>
+      <c r="S116" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U116" s="41"/>
+    </row>
+    <row r="117" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="44">
+        <v>3</v>
+      </c>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J117" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P117" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q117" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="R117" s="40">
+        <v>2</v>
+      </c>
+      <c r="S117" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U117" s="41"/>
+    </row>
+    <row r="118" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" s="44">
+        <v>3</v>
+      </c>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J118" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P118" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q118" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R118" s="40">
+        <v>3</v>
+      </c>
+      <c r="S118" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="U118" s="41"/>
+    </row>
+    <row r="119" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="38">
+        <v>3</v>
+      </c>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P119" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q119" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="R119" s="40">
+        <v>4</v>
+      </c>
+      <c r="S119" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U119" s="41"/>
+    </row>
+    <row r="120" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="38">
+        <v>3</v>
+      </c>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U120" s="41"/>
+    </row>
+    <row r="121" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" s="44">
+        <v>3</v>
+      </c>
+      <c r="E121" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J121" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U121" s="41"/>
+    </row>
+    <row r="122" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I122" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J122" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K122" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U122" s="41"/>
+    </row>
+    <row r="123" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I123" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J123" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K123" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U123" s="41"/>
+    </row>
+    <row r="124" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="38">
+        <v>3</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J124" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U124" s="41"/>
+    </row>
+    <row r="125" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B125" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="44">
+        <v>3</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J125" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K125" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U125" s="41"/>
+    </row>
+    <row r="126" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="38">
+        <v>3</v>
+      </c>
+      <c r="E126" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K126" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U126" s="41"/>
+    </row>
+    <row r="127" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" s="38">
+        <v>3</v>
+      </c>
+      <c r="E127" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U127" s="41"/>
+    </row>
+    <row r="128" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128" s="44">
+        <v>3</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J128" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K128" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U128" s="41"/>
+    </row>
+    <row r="129" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="38">
+        <v>3</v>
+      </c>
+      <c r="E129" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I129" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U129" s="41"/>
+    </row>
+    <row r="130" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="44">
+        <v>3</v>
+      </c>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K130" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U130" s="41"/>
+    </row>
+    <row r="131" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" s="48">
+        <v>3</v>
+      </c>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I131" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J131" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P131" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q131" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="R131" s="50">
+        <v>2</v>
+      </c>
+      <c r="S131" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="U131" s="51"/>
+    </row>
+    <row r="132" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="54">
+        <v>3</v>
+      </c>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I132" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J132" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="P132" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q132" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="R132" s="50">
+        <v>3</v>
+      </c>
+      <c r="S132" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="U132" s="51"/>
+    </row>
+    <row r="133" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" s="48">
+        <v>3</v>
+      </c>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I133" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J133" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K133" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P133" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q133" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="R133" s="50">
+        <v>4</v>
+      </c>
+      <c r="S133" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U133" s="51"/>
+    </row>
+    <row r="134" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="54">
+        <v>3</v>
+      </c>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K134" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="P134" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q134" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="R134" s="50">
+        <v>2</v>
+      </c>
+      <c r="S134" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="U134" s="51"/>
+    </row>
+    <row r="135" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B135" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="54">
+        <v>3</v>
+      </c>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I135" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J135" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K135" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="P135" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q135" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="R135" s="50">
+        <v>3</v>
+      </c>
+      <c r="S135" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="U135" s="51"/>
+    </row>
+    <row r="136" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="48">
+        <v>3</v>
+      </c>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J136" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P136" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q136" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="R136" s="50">
+        <v>4</v>
+      </c>
+      <c r="S136" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U136" s="51"/>
+    </row>
+    <row r="137" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" s="48">
+        <v>3</v>
+      </c>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U137" s="51"/>
+    </row>
+    <row r="138" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="54">
+        <v>3</v>
+      </c>
+      <c r="E138" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J138" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U138" s="51"/>
+    </row>
+    <row r="139" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F139" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I139" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J139" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U139" s="51"/>
+    </row>
+    <row r="140" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="E140" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F140" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H140" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J140" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K140" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U140" s="51"/>
+    </row>
+    <row r="141" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B141" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="48">
+        <v>3</v>
+      </c>
+      <c r="E141" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G141" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J141" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U141" s="51"/>
+    </row>
+    <row r="142" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" s="54">
+        <v>3</v>
+      </c>
+      <c r="E142" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F142" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J142" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K142" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U142" s="51"/>
+    </row>
+    <row r="143" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" s="48">
+        <v>3</v>
+      </c>
+      <c r="E143" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F143" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J143" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U143" s="51"/>
+    </row>
+    <row r="144" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" s="48">
+        <v>3</v>
+      </c>
+      <c r="E144" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F144" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G144" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J144" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U144" s="51"/>
+    </row>
+    <row r="145" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="48">
+        <v>3</v>
+      </c>
+      <c r="E145" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I145" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J145" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U145" s="51"/>
+    </row>
+    <row r="146" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" s="48">
+        <v>3</v>
+      </c>
+      <c r="E146" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J146" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K146" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U146" s="51"/>
+    </row>
+    <row r="147" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D147" s="48">
+        <v>3</v>
+      </c>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H147" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I147" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J147" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K147" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="U147" s="51"/>
+    </row>
+    <row r="148" spans="1:21" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" t="str">
+        <f>VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Introduction to Flight and Aerospace Systems</v>
+      </c>
+      <c r="D148" s="48">
+        <f>VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E148" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213</v>
+      </c>
+      <c r="F148" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G148" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H148" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I148" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J148" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B148,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K148" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="P148" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q148" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="R148" s="60">
+        <v>2</v>
+      </c>
+      <c r="S148" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U148" s="61"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" t="str">
+        <f>VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Introduction to Aircraft Design</v>
+      </c>
+      <c r="D149" s="48">
+        <f>VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E149" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 201</v>
+      </c>
+      <c r="F149" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENCS 282</v>
+      </c>
+      <c r="G149" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H149" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I149" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J149" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B149,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K149" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" t="str">
+        <f>VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Modelling and Control Systems</v>
+      </c>
+      <c r="D150" s="48">
+        <f>VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E150" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>PHYS 205; ENGR 213, ENGR 243</v>
+      </c>
+      <c r="F150" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 311 or ELEC 342 or ELEC 364</v>
+      </c>
+      <c r="G150" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H150" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I150" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J150" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B150,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K150" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" t="str">
+        <f>VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D151" s="48">
+        <f>VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E151" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 290, AERO 371; ENCS 282</v>
+      </c>
+      <c r="F151" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G151" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H151" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I151" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J151" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B151,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K151" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" t="s">
+        <v>187</v>
+      </c>
+      <c r="C152" t="str">
+        <f>VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Standards, Regulations and Certification</v>
+      </c>
+      <c r="D152" s="48">
+        <f>VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E152" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 201</v>
+      </c>
+      <c r="F152" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G152" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X*</v>
+      </c>
+      <c r="H152" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I152" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J152" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B152,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K152" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" t="s">
+        <v>188</v>
+      </c>
+      <c r="C153" t="str">
+        <f>VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D153" s="48">
+        <v>3</v>
+      </c>
+      <c r="E153" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F153" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G153" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H153" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I153" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J153" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B153,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K153" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154" t="str">
+        <f>VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D154" s="48">
+        <v>3</v>
+      </c>
+      <c r="E154" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F154" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G154" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H154" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I154" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J154" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B154,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K154" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="str">
+        <f>VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Statics</v>
+      </c>
+      <c r="D155" s="48">
+        <f>VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E155" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213</v>
+      </c>
+      <c r="F155" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>PHYS 204; MATH 204</v>
+      </c>
+      <c r="G155" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H155" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I155" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J155" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B155,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K155" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="str">
+        <f>VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Dynamics</v>
+      </c>
+      <c r="D156" s="48">
+        <f>VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E156" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 242</v>
+      </c>
+      <c r="F156" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G156" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H156" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I156" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J156" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B156,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K156" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="str">
+        <f>VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanics of Materials</v>
+      </c>
+      <c r="D157" s="48">
+        <f>VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E157" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213; ENGR 242 or ENGR 245</v>
+      </c>
+      <c r="F157" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 233</v>
+      </c>
+      <c r="G157" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H157" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I157" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J157" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B157,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K157" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="str">
+        <f>VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Thermodynamics I</v>
+      </c>
+      <c r="D158" s="48">
+        <f>VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E158" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 203</v>
+      </c>
+      <c r="F158" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G158" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H158" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I158" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J158" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B158,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K158" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="str">
+        <f>VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Fluid Mechanics I</v>
+      </c>
+      <c r="D159" s="48">
+        <f>VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E159" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233, ENGR 251 or AERO 253</v>
+      </c>
+      <c r="F159" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G159" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H159" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I159" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J159" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B159,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K159" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" t="str">
+        <f>VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Introduction to Aircraft Design</v>
+      </c>
+      <c r="D160" s="48">
+        <f>VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E160" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 201</v>
+      </c>
+      <c r="F160" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENCS 282</v>
+      </c>
+      <c r="G160" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H160" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I160" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J160" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B160,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K160" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" t="str">
+        <f>VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Modelling and Control Systems</v>
+      </c>
+      <c r="D161" s="48">
+        <f>VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E161" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>PHYS 205; ENGR 213, ENGR 243</v>
+      </c>
+      <c r="F161" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 311 or ELEC 342 or ELEC 364</v>
+      </c>
+      <c r="G161" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H161" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I161" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J161" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B161,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K161" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" t="str">
+        <f>VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D162" s="48">
+        <f>VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E162" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 290, AERO 371; ENCS 282</v>
+      </c>
+      <c r="F162" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G162" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H162" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I162" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J162" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B162,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K162" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" t="str">
+        <f>VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Standards, Regulations and Certification</v>
+      </c>
+      <c r="D163" s="48">
+        <f>VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E163" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 201</v>
+      </c>
+      <c r="F163" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G163" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X*</v>
+      </c>
+      <c r="H163" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I163" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J163" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B163,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K163" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" t="s">
+        <v>188</v>
+      </c>
+      <c r="C164" t="str">
+        <f>VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D164" s="48">
+        <v>3</v>
+      </c>
+      <c r="E164" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F164" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G164" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H164" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I164" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J164" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B164,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K164" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" t="s">
+        <v>189</v>
+      </c>
+      <c r="C165" t="str">
+        <f>VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D165" s="48">
+        <v>3</v>
+      </c>
+      <c r="E165" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F165" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G165" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H165" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I165" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J165" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B165,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K165" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="str">
+        <f>VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Statics</v>
+      </c>
+      <c r="D166" s="48">
+        <f>VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E166" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213</v>
+      </c>
+      <c r="F166" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>PHYS 204; MATH 204</v>
+      </c>
+      <c r="G166" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H166" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I166" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J166" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B166,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K166" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="str">
+        <f>VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Dynamics</v>
+      </c>
+      <c r="D167" s="48">
+        <f>VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E167" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 242</v>
+      </c>
+      <c r="F167" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G167" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H167" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I167" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J167" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B167,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K167" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="str">
+        <f>VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanics of Materials</v>
+      </c>
+      <c r="D168" s="48">
+        <f>VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E168" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213; ENGR 242 or ENGR 245</v>
+      </c>
+      <c r="F168" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 233</v>
+      </c>
+      <c r="G168" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H168" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I168" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J168" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B168,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K168" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="str">
+        <f>VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Thermodynamics I</v>
+      </c>
+      <c r="D169" s="48">
+        <f>VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E169" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 203</v>
+      </c>
+      <c r="F169" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G169" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H169" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I169" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J169" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B169,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K169" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="str">
+        <f>VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Fluid Mechanics I</v>
+      </c>
+      <c r="D170" s="48">
+        <f>VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E170" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233, ENGR 251 or AERO 253</v>
+      </c>
+      <c r="F170" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G170" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H170" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I170" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J170" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B170,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K170" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" t="str">
+        <f>VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Introduction to Aircraft Design</v>
+      </c>
+      <c r="D171" s="48">
+        <f>VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E171" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 201</v>
+      </c>
+      <c r="F171" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENCS 282</v>
+      </c>
+      <c r="G171" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H171" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I171" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J171" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B171,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K171" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" t="str">
+        <f>VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Modelling and Control Systems</v>
+      </c>
+      <c r="D172" s="48">
+        <f>VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E172" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>PHYS 205; ENGR 213, ENGR 243</v>
+      </c>
+      <c r="F172" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 311 or ELEC 342 or ELEC 364</v>
+      </c>
+      <c r="G172" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H172" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I172" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J172" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B172,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K172" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" t="str">
+        <f>VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D173" s="48">
+        <f>VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E173" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 290, AERO 371; ENCS 282</v>
+      </c>
+      <c r="F173" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G173" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H173" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I173" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J173" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B173,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K173" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" t="str">
+        <f>VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Standards, Regulations and Certification</v>
+      </c>
+      <c r="D174" s="48">
+        <f>VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E174" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 201</v>
+      </c>
+      <c r="F174" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G174" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X*</v>
+      </c>
+      <c r="H174" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I174" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J174" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B174,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K174" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" t="str">
+        <f>VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D175" s="48">
+        <v>3</v>
+      </c>
+      <c r="E175" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F175" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G175" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H175" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I175" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J175" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B175,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K175" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" t="str">
+        <f>VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Capstone Aerospace Engineering Design Project</v>
+      </c>
+      <c r="D176" s="48">
+        <v>3</v>
+      </c>
+      <c r="E176" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 390; ENGR 301. Students must have completed 75 credits in the program.</v>
+      </c>
+      <c r="F176" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G176" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H176" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I176" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J176" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B176,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K176" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="str">
+        <f>VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Statics</v>
+      </c>
+      <c r="D177" s="48">
+        <f>VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E177" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213</v>
+      </c>
+      <c r="F177" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>PHYS 204; MATH 204</v>
+      </c>
+      <c r="G177" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H177" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I177" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J177" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B177,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K177" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="str">
+        <f>VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Dynamics</v>
+      </c>
+      <c r="D178" s="48">
+        <f>VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E178" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 242</v>
+      </c>
+      <c r="F178" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G178" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H178" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I178" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J178" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B178,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K178" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="str">
+        <f>VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanics of Materials</v>
+      </c>
+      <c r="D179" s="48">
+        <f>VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E179" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213; ENGR 242 or ENGR 245</v>
+      </c>
+      <c r="F179" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>ENGR 233</v>
+      </c>
+      <c r="G179" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H179" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I179" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J179" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B179,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K179" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="str">
+        <f>VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Thermodynamics I</v>
+      </c>
+      <c r="D180" s="48">
+        <f>VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E180" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 203</v>
+      </c>
+      <c r="F180" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G180" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H180" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I180" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J180" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B180,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K180" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="str">
+        <f>VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Fluid Mechanics I</v>
+      </c>
+      <c r="D181" s="48">
+        <f>VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E181" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233, ENGR 251 or AERO 253</v>
+      </c>
+      <c r="F181" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G181" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H181" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I181" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J181" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B181,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K181" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" t="str">
+        <f>VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aerospace Vehicle Performance</v>
+      </c>
+      <c r="D182" s="48">
+        <f>VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E182" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 361</v>
+      </c>
+      <c r="F182" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G182" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H182" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I182" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J182" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B182,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K182" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" t="str">
+        <f>VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Computational Fluid Dynamics for Aerospace Applications</v>
+      </c>
+      <c r="D183" s="48">
+        <f>VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E183" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 311, ENGR 391; MECH 361</v>
+      </c>
+      <c r="F183" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G183" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H183" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I183" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J183" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B183,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K183" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" t="str">
+        <f>VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Turbomachinery and Propulsion</v>
+      </c>
+      <c r="D184" s="48">
+        <f>VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E184" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 351, MECH 361</v>
+      </c>
+      <c r="F184" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G184" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H184" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I184" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J184" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B184,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K184" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" t="s">
+        <v>193</v>
+      </c>
+      <c r="C185" t="str">
+        <f>VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aerodynamics</v>
+      </c>
+      <c r="D185" s="48">
+        <f>VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E185" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 361</v>
+      </c>
+      <c r="F185" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G185" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H185" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I185" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J185" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B185,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K185" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>194</v>
+      </c>
+      <c r="C186" t="str">
+        <f>VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Gas Turbine Design</v>
+      </c>
+      <c r="D186" s="48">
+        <f>VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E186" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 462</v>
+      </c>
+      <c r="F186" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G186" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H186" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I186" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J186" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B186,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K186" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187" t="str">
+        <f>VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Materials Engineering for Aerospace</v>
+      </c>
+      <c r="D187" s="48">
+        <f>VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E187" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 221 or MIAE</v>
+      </c>
+      <c r="F187" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G187" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H187" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I187" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J187" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B187,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K187" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="str">
+        <f>VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Transform Calculus and Partial Differential Equations</v>
+      </c>
+      <c r="D188" s="48">
+        <f>VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E188" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233</v>
+      </c>
+      <c r="F188" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G188" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H188" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I188" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J188" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B188,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K188" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" t="str">
+        <f>VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Theory of Machines</v>
+      </c>
+      <c r="D189" s="48">
+        <f>VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E189" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233, ENGR 243</v>
+      </c>
+      <c r="F189" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G189" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H189" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I189" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J189" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B189,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K189" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="str">
+        <f>VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Thermodynamics II</v>
+      </c>
+      <c r="D190" s="48">
+        <f>VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E190" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 251</v>
+      </c>
+      <c r="F190" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G190" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H190" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I190" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J190" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B190,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K190" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="str">
+        <f>VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Heat Transfer I</v>
+      </c>
+      <c r="D191" s="48">
+        <f>VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E191" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 311, ENGR 361</v>
+      </c>
+      <c r="F191" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G191" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H191" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I191" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J191" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B191,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K191" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" t="str">
+        <f>VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Fluid Mechanics II</v>
+      </c>
+      <c r="D192" s="48">
+        <f>VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E192" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 361</v>
+      </c>
+      <c r="F192" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G192" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H192" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I192" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J192" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B192,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K192" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193" t="str">
+        <f>VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Gas Dynamics</v>
+      </c>
+      <c r="D193" s="48">
+        <f>VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E193" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 361</v>
+      </c>
+      <c r="F193" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G193" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H193" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I193" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J193" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B193,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K193" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" t="str">
+        <f>VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanical Engineering Drawing</v>
+      </c>
+      <c r="D194" s="48">
+        <f>VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E194" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F194" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G194" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H194" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I194" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J194" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B194,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K194" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="str">
+        <f>VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Programming for Mechanical, Industrial and Aerospace Engineers</v>
+      </c>
+      <c r="D195" s="48">
+        <f>VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E195" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 204 (Cegep mathematics 105)</v>
+      </c>
+      <c r="F195" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G195" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H195" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I195" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J195" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B195,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K195" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" t="str">
+        <f>VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Materials Science</v>
+      </c>
+      <c r="D196" s="48">
+        <f>VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E196" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>CHEM 205 (Cegep Chemistry 101)</v>
+      </c>
+      <c r="F196" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G196" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H196" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I196" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J196" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B196,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K196" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>219</v>
+      </c>
+      <c r="D197" s="48">
+        <v>3</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I197" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J197" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K197" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="48">
+        <v>3</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H198" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I198" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J198" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K198" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="str">
+        <f>VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Principles of Aeroelasticity</v>
+      </c>
+      <c r="D199" s="48">
+        <f>VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E199" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 361; MECH 375</v>
+      </c>
+      <c r="F199" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G199" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H199" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I199" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J199" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B199,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K199" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" t="s">
+        <v>195</v>
+      </c>
+      <c r="C200" t="str">
+        <f>VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Materials Engineering for Aerospace</v>
+      </c>
+      <c r="D200" s="48">
+        <f>VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E200" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 221 or MIAE</v>
+      </c>
+      <c r="F200" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G200" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H200" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I200" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J200" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B200,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K200" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201" t="str">
+        <f>VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Aircraft Stress Analysis</v>
+      </c>
+      <c r="D201" s="48">
+        <f>VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E201" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 243, ENGR 244</v>
+      </c>
+      <c r="F201" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G201" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H201" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I201" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J201" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B201,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K201" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" t="str">
+        <f>VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Design of Aircraft Structures</v>
+      </c>
+      <c r="D202" s="48">
+        <f>VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E202" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 486</v>
+      </c>
+      <c r="F202" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G202" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H202" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I202" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J202" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B202,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K202" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="str">
+        <f>VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Transform Calculus and Partial Differential Equations</v>
+      </c>
+      <c r="D203" s="48">
+        <f>VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E203" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233</v>
+      </c>
+      <c r="F203" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G203" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H203" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I203" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J203" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B203,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K203" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="str">
+        <f>VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Theory of Machines</v>
+      </c>
+      <c r="D204" s="48">
+        <f>VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E204" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213, ENGR 233, ENGR 243</v>
+      </c>
+      <c r="F204" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G204" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H204" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I204" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J204" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B204,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K204" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" t="str">
+        <f>VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Heat Transfer I</v>
+      </c>
+      <c r="D205" s="48">
+        <f>VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E205" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 311, ENGR 361</v>
+      </c>
+      <c r="F205" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G205" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H205" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I205" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J205" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B205,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K205" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B206" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" t="str">
+        <f>VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Instrumentation and Measurements</v>
+      </c>
+      <c r="D206" s="48">
+        <f>VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E206" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 311; AERO 371 or MECH 370 or MECH 371</v>
+      </c>
+      <c r="F206" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G206" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H206" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I206" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J206" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B206,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K206" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" t="str">
+        <f>VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanical Vibrations</v>
+      </c>
+      <c r="D207" s="48">
+        <f>VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E207" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 371 or MECH 370 or MECH 371</v>
+      </c>
+      <c r="F207" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G207" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H207" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I207" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J207" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B207,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K207" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" t="str">
+        <f>VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Computer‑Aided Mechanical Design</v>
+      </c>
+      <c r="D208" s="48">
+        <f>VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E208" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MIAE 311</v>
+      </c>
+      <c r="F208" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G208" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H208" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I208" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J208" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B208,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K208" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209" t="s">
+        <v>203</v>
+      </c>
+      <c r="C209" t="str">
+        <f>VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Finite Element Analysis</v>
+      </c>
+      <c r="D209" s="48">
+        <f>VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E209" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 244, ENGR 391</v>
+      </c>
+      <c r="F209" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G209" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H209" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I209" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J209" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B209,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K209" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="str">
+        <f>VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Mechanical Engineering Drawing</v>
+      </c>
+      <c r="D210" s="48">
+        <f>VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E210" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F210" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G210" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H210" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I210" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J210" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B210,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K210" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B211" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" t="str">
+        <f>VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Materials Science</v>
+      </c>
+      <c r="D211" s="48">
+        <f>VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E211" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>CHEM 205 (Cegep Chemistry 101)</v>
+      </c>
+      <c r="F211" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G211" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H211" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I211" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J211" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B211,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K211" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" t="str">
+        <f>VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Programming for Mechanical, Industrial and Aerospace Engineers</v>
+      </c>
+      <c r="D212" s="48">
+        <f>VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E212" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 204 (Cegep mathematics 105)</v>
+      </c>
+      <c r="F212" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G212" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H212" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I212" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J212" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B212,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K212" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" t="str">
+        <f>VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Manufacturing Processes</v>
+      </c>
+      <c r="D213" s="48">
+        <f>VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E213" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 313 or MIAE 313</v>
+      </c>
+      <c r="F213" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G213" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H213" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I213" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J213" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B213,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K213" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B214" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" t="str">
+        <f>VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Engineering Design and Manufacturing Processes Lab</v>
+      </c>
+      <c r="D214" s="48">
+        <f>VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E214" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F214" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v>MIAE 311</v>
+      </c>
+      <c r="G214" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X**</v>
+      </c>
+      <c r="H214" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I214" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J214" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B214,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K214" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" t="str">
+        <f>VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Machine Drawing and Design</v>
+      </c>
+      <c r="D215" s="48">
+        <f>VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E215" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MECH 211 or MIAE 211</v>
+      </c>
+      <c r="F215" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G215" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H215" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I215" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J215" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B215,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K215" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B216" t="s">
+        <v>204</v>
+      </c>
+      <c r="C216" t="str">
+        <f>VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Avionic Navigation Systems</v>
+      </c>
+      <c r="D216" s="48">
+        <f>VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E216" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 371 or COMP 233; AERO 371 or ELEC 372 or MECH 371 or SOEN 385</v>
+      </c>
+      <c r="F216" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G216" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H216" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I216" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J216" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B216,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K216" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B217" t="s">
+        <v>205</v>
+      </c>
+      <c r="C217" t="str">
+        <f>VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Integration of Avionics Systems</v>
+      </c>
+      <c r="D217" s="48">
+        <f>VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E217" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 482; ELEC 481</v>
+      </c>
+      <c r="F217" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G217" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H217" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I217" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J217" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B217,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K217" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B218" t="s">
+        <v>206</v>
+      </c>
+      <c r="C218" t="str">
+        <f>VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Digital Systems Design I</v>
+      </c>
+      <c r="D218" s="48">
+        <f>VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E218" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 204 (Cegep Mathematics 105)</v>
+      </c>
+      <c r="F218" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G218" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H218" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="I218" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J218" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B218,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K218" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B219" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219" t="str">
+        <f>VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Programming Methodology I</v>
+      </c>
+      <c r="D219" s="48">
+        <f>VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E219" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>MATH 204 (Cegep Mathematics 105)</v>
+      </c>
+      <c r="F219" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G219" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H219" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I219" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J219" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B219,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K219" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B220" t="s">
+        <v>208</v>
+      </c>
+      <c r="C220" t="str">
+        <f>VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Programming Methodology II</v>
+      </c>
+      <c r="D220" s="48">
+        <f>VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E220" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>COEN 243 or MECH 215 or MIAE 215</v>
+      </c>
+      <c r="F220" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G220" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H220" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I220" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J220" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B220,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K220" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B221" t="s">
+        <v>209</v>
+      </c>
+      <c r="C221" t="str">
+        <f>VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Computer Organization and Software</v>
+      </c>
+      <c r="D221" s="48">
+        <f>VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E221" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>COEN 212, COEN 243</v>
+      </c>
+      <c r="F221" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G221" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H221" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I221" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J221" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B221,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K221" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B222" t="s">
+        <v>210</v>
+      </c>
+      <c r="C222" t="str">
+        <f>VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Data Structures and Algorithms</v>
+      </c>
+      <c r="D222" s="48">
+        <f>VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E222" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>COEN 231, COEN 244</v>
+      </c>
+      <c r="F222" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G222" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H222" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I222" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J222" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B222,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K222" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B223" t="s">
+        <v>211</v>
+      </c>
+      <c r="C223" t="str">
+        <f>VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Continuous‑Time Signals and Systems</v>
+      </c>
+      <c r="D223" s="48">
+        <f>VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E223" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ELEC 273; ENGR 213</v>
+      </c>
+      <c r="F223" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G223" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H223" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I223" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J223" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B223,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K223" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B224" t="s">
+        <v>212</v>
+      </c>
+      <c r="C224" t="str">
+        <f>VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Basic Circuit Analysis</v>
+      </c>
+      <c r="D224" s="48">
+        <f>VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E224" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ENGR 213; PHYS 205</v>
+      </c>
+      <c r="F224" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G224" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H224" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I224" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J224" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B224,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K224" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B225" t="s">
+        <v>213</v>
+      </c>
+      <c r="C225" t="str">
+        <f>VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Discrete‑Time Signals and Systems</v>
+      </c>
+      <c r="D225" s="48">
+        <f>VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E225" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>ELEC 242 or ELEC 264</v>
+      </c>
+      <c r="F225" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G225" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="H225" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I225" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J225" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B225,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K225" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B226" t="s">
+        <v>222</v>
+      </c>
+      <c r="C226" t="str">
+        <f>VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v xml:space="preserve">Linear Systems </v>
+      </c>
+      <c r="D226" s="48">
+        <f>VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E226" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 371 or ELEC 372 or MECH 371</v>
+      </c>
+      <c r="F226" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G226" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H226" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I226" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J226" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B226,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K226" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B227" t="s">
+        <v>214</v>
+      </c>
+      <c r="C227" t="str">
+        <f>VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Real‑Time Computer Control Systems</v>
+      </c>
+      <c r="D227" s="48">
+        <f>VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E227" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>AERO 371 or ELEC 372; ELEC 342 or ELEC 364</v>
+      </c>
+      <c r="F227" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G227" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H227" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I227" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J227" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B227,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K227" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B228" t="s">
+        <v>215</v>
+      </c>
+      <c r="C228" t="str">
+        <f>VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],2,FALSE)</f>
+        <v>Software Process</v>
+      </c>
+      <c r="D228" s="48">
+        <f>VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E228" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],4,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],4,FALSE))</f>
+        <v>COMP 352 or COEN 352; ENCS 282</v>
+      </c>
+      <c r="F228" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],5,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G228" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],6,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H228" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],7,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I228" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],8,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],8,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="J228" s="23" t="str">
+        <f>IF(VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],9,FALSE)=0,"",VLOOKUP(LEFT($B228,8),[1]!Table24[#Data],9,FALSE))</f>
+        <v>X</v>
+      </c>
+      <c r="K228" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B229" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" t="s">
+        <v>219</v>
+      </c>
+      <c r="D229" s="48">
+        <v>3</v>
+      </c>
+      <c r="G229" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I229" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J229" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K229" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B230" t="s">
+        <v>217</v>
+      </c>
+      <c r="C230" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" s="48">
+        <v>3</v>
+      </c>
+      <c r="G230" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H230" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I230" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J230" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K230" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B231" t="s">
+        <v>218</v>
+      </c>
+      <c r="C231" t="s">
+        <v>220</v>
+      </c>
+      <c r="D231" s="48">
+        <v>3</v>
+      </c>
+      <c r="G231" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H231" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I231" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J231" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K231" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D232" s="18">
+        <v>16</v>
+      </c>
+      <c r="E232" t="s">
+        <v>164</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I232" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J232" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K232" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D233" s="20">
+        <v>16</v>
+      </c>
+      <c r="E233" t="s">
+        <v>161</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I233" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J233" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K233" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D234" s="18">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>162</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I234" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J234" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K234" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D235" s="18">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>164</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I235" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J235" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K235" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D236" s="20">
+        <v>16</v>
+      </c>
+      <c r="E236" t="s">
+        <v>161</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J236" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K236" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D237" s="18">
+        <v>16</v>
+      </c>
+      <c r="E237" t="s">
+        <v>162</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J237" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K237" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D238" s="18">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>164</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I238" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J238" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K238" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D239" s="20">
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>161</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I239" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J239" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K239" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D240" s="18">
+        <v>16</v>
+      </c>
+      <c r="E240" t="s">
+        <v>162</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I240" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J240" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K240" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4482,6 +10451,7 @@
       <sortCondition ref="A1:A133"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PRG">
       <formula>NOT(ISERROR(SEARCH("PRG",K1)))</formula>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vosor\OneDrive\! 1.Concordia\!z - COOP director\! PYTHON\WEB_TOOL\PY_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="769" documentId="11_F25DC773A252ABDACC104814115B78685BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E221AC1-AE57-46F8-A867-075E8274E3F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="720" windowWidth="23250" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22485" yWindow="5745" windowWidth="23220" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$243</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1368,10 +1368,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1638,10 +1634,10 @@
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1646,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
     <col min="7" max="10" width="11.85546875" style="23" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
@@ -2899,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>43</v>
@@ -2935,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>43</v>
@@ -2971,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>43</v>
@@ -10084,11 +10080,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K128" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K245">
-      <sortCondition ref="B1:B128"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K243" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PRG">

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vosor\OneDrive\! 1.Concordia\!z - COOP director\! PYTHON\WEB_TOOL\PY_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D938103D-7BDE-4D13-BFD3-BF129A75FDAA}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="5745" windowWidth="23220" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="283">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -894,7 +894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,6 +920,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1070,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1328,6 +1343,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1631,13 +1700,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1773,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>170</v>
       </c>
@@ -1741,7 +1811,7 @@
       </c>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>177</v>
       </c>
@@ -1789,7 +1859,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>178</v>
       </c>
@@ -1837,7 +1907,7 @@
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>179</v>
       </c>
@@ -1873,7 +1943,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>178</v>
       </c>
@@ -1909,7 +1979,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>179</v>
       </c>
@@ -1945,7 +2015,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>177</v>
       </c>
@@ -1981,7 +2051,7 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>178</v>
       </c>
@@ -2017,7 +2087,7 @@
       </c>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>179</v>
       </c>
@@ -2053,7 +2123,7 @@
       </c>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>177</v>
       </c>
@@ -2089,7 +2159,7 @@
       </c>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
@@ -2125,7 +2195,7 @@
       </c>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>179</v>
       </c>
@@ -2161,7 +2231,7 @@
       </c>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>177</v>
       </c>
@@ -2197,7 +2267,7 @@
       </c>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>178</v>
       </c>
@@ -2233,7 +2303,7 @@
       </c>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>179</v>
       </c>
@@ -2269,7 +2339,7 @@
       </c>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>177</v>
       </c>
@@ -2305,7 +2375,7 @@
       </c>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>178</v>
       </c>
@@ -2341,7 +2411,7 @@
       </c>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>179</v>
       </c>
@@ -2377,7 +2447,7 @@
       </c>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>178</v>
       </c>
@@ -2413,7 +2483,7 @@
       </c>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>177</v>
       </c>
@@ -2449,7 +2519,7 @@
       </c>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>177</v>
       </c>
@@ -2485,7 +2555,7 @@
       </c>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>177</v>
       </c>
@@ -2521,7 +2591,7 @@
       </c>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>177</v>
       </c>
@@ -2557,7 +2627,7 @@
       </c>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>177</v>
       </c>
@@ -2593,7 +2663,7 @@
       </c>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>178</v>
       </c>
@@ -2629,7 +2699,7 @@
       </c>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>179</v>
       </c>
@@ -2665,7 +2735,7 @@
       </c>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>179</v>
       </c>
@@ -2701,7 +2771,7 @@
       </c>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>178</v>
       </c>
@@ -2737,7 +2807,7 @@
       </c>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>178</v>
       </c>
@@ -2881,115 +2951,109 @@
       </c>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:21" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="45">
-        <v>3</v>
-      </c>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="93">
+        <v>3</v>
+      </c>
+      <c r="E34" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="52" t="s">
+      <c r="F34" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="U34" s="97"/>
+    </row>
+    <row r="35" spans="1:21" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="45">
-        <v>3</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="93">
+        <v>3</v>
+      </c>
+      <c r="E35" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="52" t="s">
+      <c r="F35" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="U35" s="97"/>
+    </row>
+    <row r="36" spans="1:21" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="45">
-        <v>3</v>
-      </c>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="93">
+        <v>3</v>
+      </c>
+      <c r="E36" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="52" t="s">
+      <c r="F36" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U36" s="97"/>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
@@ -3019,7 +3083,7 @@
       </c>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>109</v>
       </c>
@@ -3049,7 +3113,7 @@
       </c>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
         <v>177</v>
       </c>
@@ -3079,7 +3143,7 @@
       </c>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
         <v>178</v>
       </c>
@@ -3109,7 +3173,7 @@
       </c>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>179</v>
       </c>
@@ -3139,7 +3203,7 @@
       </c>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>179</v>
       </c>
@@ -3175,7 +3239,7 @@
       </c>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>179</v>
       </c>
@@ -3211,7 +3275,7 @@
       </c>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>179</v>
       </c>
@@ -3247,7 +3311,7 @@
       </c>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>179</v>
       </c>
@@ -3283,7 +3347,7 @@
       </c>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>179</v>
       </c>
@@ -3319,7 +3383,7 @@
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>179</v>
       </c>
@@ -3355,7 +3419,7 @@
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>179</v>
       </c>
@@ -3391,7 +3455,7 @@
       </c>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>179</v>
       </c>
@@ -3427,7 +3491,7 @@
       </c>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>179</v>
       </c>
@@ -3463,7 +3527,7 @@
       </c>
       <c r="U50" s="3"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>179</v>
       </c>
@@ -3499,7 +3563,7 @@
       </c>
       <c r="U51" s="3"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>179</v>
       </c>
@@ -3534,7 +3598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>170</v>
       </c>
@@ -3569,7 +3633,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -3604,7 +3668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>177</v>
       </c>
@@ -3639,7 +3703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>178</v>
       </c>
@@ -3674,7 +3738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>179</v>
       </c>
@@ -3709,7 +3773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
@@ -3744,7 +3808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
@@ -3779,7 +3843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>177</v>
       </c>
@@ -3814,7 +3878,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>178</v>
       </c>
@@ -3849,7 +3913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>179</v>
       </c>
@@ -3884,7 +3948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>170</v>
       </c>
@@ -3919,7 +3983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -3954,7 +4018,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>177</v>
       </c>
@@ -3989,7 +4053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>178</v>
       </c>
@@ -4024,7 +4088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>179</v>
       </c>
@@ -4059,7 +4123,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
@@ -4094,7 +4158,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -4129,7 +4193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>177</v>
       </c>
@@ -4164,7 +4228,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>178</v>
       </c>
@@ -4199,7 +4263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>179</v>
       </c>
@@ -4234,7 +4298,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>170</v>
       </c>
@@ -4269,7 +4333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>109</v>
       </c>
@@ -4304,7 +4368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>177</v>
       </c>
@@ -4339,7 +4403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>178</v>
       </c>
@@ -4374,7 +4438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>179</v>
       </c>
@@ -4409,7 +4473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>109</v>
       </c>
@@ -4444,7 +4508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
         <v>177</v>
       </c>
@@ -4479,7 +4543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>178</v>
       </c>
@@ -4514,7 +4578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
         <v>179</v>
       </c>
@@ -4549,7 +4613,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -4584,7 +4648,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>177</v>
       </c>
@@ -4619,7 +4683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
         <v>178</v>
       </c>
@@ -4654,7 +4718,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
         <v>179</v>
       </c>
@@ -4689,7 +4753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>109</v>
       </c>
@@ -4724,7 +4788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
         <v>177</v>
       </c>
@@ -4759,7 +4823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>178</v>
       </c>
@@ -4794,7 +4858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
         <v>179</v>
       </c>
@@ -4829,7 +4893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>170</v>
       </c>
@@ -4864,7 +4928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="65" t="s">
         <v>170</v>
       </c>
@@ -4899,7 +4963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="67" t="s">
         <v>109</v>
       </c>
@@ -4934,7 +4998,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="68" t="s">
         <v>177</v>
       </c>
@@ -4969,7 +5033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>170</v>
       </c>
@@ -5017,7 +5081,7 @@
       </c>
       <c r="U94" s="58"/>
     </row>
-    <row r="95" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
@@ -5065,7 +5129,7 @@
       </c>
       <c r="U95" s="58"/>
     </row>
-    <row r="96" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
         <v>177</v>
       </c>
@@ -5113,7 +5177,7 @@
       </c>
       <c r="U96" s="58"/>
     </row>
-    <row r="97" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>178</v>
       </c>
@@ -5161,7 +5225,7 @@
       </c>
       <c r="U97" s="58"/>
     </row>
-    <row r="98" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
         <v>179</v>
       </c>
@@ -5197,7 +5261,7 @@
       </c>
       <c r="U98" s="58"/>
     </row>
-    <row r="99" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>170</v>
       </c>
@@ -5233,7 +5297,7 @@
       </c>
       <c r="U99" s="58"/>
     </row>
-    <row r="100" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -5269,7 +5333,7 @@
       </c>
       <c r="U100" s="58"/>
     </row>
-    <row r="101" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="53" t="s">
         <v>177</v>
       </c>
@@ -5305,7 +5369,7 @@
       </c>
       <c r="U101" s="58"/>
     </row>
-    <row r="102" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
         <v>178</v>
       </c>
@@ -5341,7 +5405,7 @@
       </c>
       <c r="U102" s="58"/>
     </row>
-    <row r="103" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>109</v>
       </c>
@@ -5377,7 +5441,7 @@
       </c>
       <c r="U103" s="58"/>
     </row>
-    <row r="104" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
         <v>177</v>
       </c>
@@ -5413,7 +5477,7 @@
       </c>
       <c r="U104" s="58"/>
     </row>
-    <row r="105" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>178</v>
       </c>
@@ -5449,7 +5513,7 @@
       </c>
       <c r="U105" s="58"/>
     </row>
-    <row r="106" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
         <v>179</v>
       </c>
@@ -5485,7 +5549,7 @@
       </c>
       <c r="U106" s="58"/>
     </row>
-    <row r="107" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>170</v>
       </c>
@@ -5521,7 +5585,7 @@
       </c>
       <c r="U107" s="58"/>
     </row>
-    <row r="108" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
@@ -5557,7 +5621,7 @@
       </c>
       <c r="U108" s="58"/>
     </row>
-    <row r="109" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="53" t="s">
         <v>177</v>
       </c>
@@ -5605,7 +5669,7 @@
       </c>
       <c r="U109" s="38"/>
     </row>
-    <row r="110" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>178</v>
       </c>
@@ -5653,7 +5717,7 @@
       </c>
       <c r="U110" s="38"/>
     </row>
-    <row r="111" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
         <v>179</v>
       </c>
@@ -5701,7 +5765,7 @@
       </c>
       <c r="U111" s="38"/>
     </row>
-    <row r="112" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>170</v>
       </c>
@@ -5749,7 +5813,7 @@
       </c>
       <c r="U112" s="38"/>
     </row>
-    <row r="113" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
@@ -5797,7 +5861,7 @@
       </c>
       <c r="U113" s="38"/>
     </row>
-    <row r="114" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
         <v>177</v>
       </c>
@@ -5845,7 +5909,7 @@
       </c>
       <c r="U114" s="38"/>
     </row>
-    <row r="115" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39" t="s">
         <v>178</v>
       </c>
@@ -5881,7 +5945,7 @@
       </c>
       <c r="U115" s="38"/>
     </row>
-    <row r="116" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43" t="s">
         <v>179</v>
       </c>
@@ -5917,7 +5981,7 @@
       </c>
       <c r="U116" s="38"/>
     </row>
-    <row r="117" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>170</v>
       </c>
@@ -5953,7 +6017,7 @@
       </c>
       <c r="U117" s="38"/>
     </row>
-    <row r="118" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>109</v>
       </c>
@@ -5989,7 +6053,7 @@
       </c>
       <c r="U118" s="38"/>
     </row>
-    <row r="119" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="53" t="s">
         <v>177</v>
       </c>
@@ -6025,7 +6089,7 @@
       </c>
       <c r="U119" s="38"/>
     </row>
-    <row r="120" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="39" t="s">
         <v>178</v>
       </c>
@@ -6061,7 +6125,7 @@
       </c>
       <c r="U120" s="38"/>
     </row>
-    <row r="121" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
         <v>179</v>
       </c>
@@ -6097,7 +6161,7 @@
       </c>
       <c r="U121" s="38"/>
     </row>
-    <row r="122" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>170</v>
       </c>
@@ -6133,7 +6197,7 @@
       </c>
       <c r="U122" s="38"/>
     </row>
-    <row r="123" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>170</v>
       </c>
@@ -6169,7 +6233,7 @@
       </c>
       <c r="U123" s="38"/>
     </row>
-    <row r="124" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>170</v>
       </c>
@@ -6205,7 +6269,7 @@
       </c>
       <c r="U124" s="38"/>
     </row>
-    <row r="125" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>170</v>
       </c>
@@ -6241,7 +6305,7 @@
       </c>
       <c r="U125" s="38"/>
     </row>
-    <row r="126" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>170</v>
       </c>
@@ -6289,7 +6353,7 @@
       </c>
       <c r="U126" s="48"/>
     </row>
-    <row r="127" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>170</v>
       </c>
@@ -6337,7 +6401,7 @@
       </c>
       <c r="U127" s="48"/>
     </row>
-    <row r="128" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>170</v>
       </c>
@@ -6385,7 +6449,7 @@
       </c>
       <c r="U128" s="48"/>
     </row>
-    <row r="129" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>170</v>
       </c>
@@ -6433,7 +6497,7 @@
       </c>
       <c r="U129" s="48"/>
     </row>
-    <row r="130" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>170</v>
       </c>
@@ -6481,7 +6545,7 @@
       </c>
       <c r="U130" s="48"/>
     </row>
-    <row r="131" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>170</v>
       </c>
@@ -6529,7 +6593,7 @@
       </c>
       <c r="U131" s="48"/>
     </row>
-    <row r="132" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>170</v>
       </c>
@@ -6565,7 +6629,7 @@
       </c>
       <c r="U132" s="48"/>
     </row>
-    <row r="133" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>170</v>
       </c>
@@ -6601,7 +6665,7 @@
       </c>
       <c r="U133" s="48"/>
     </row>
-    <row r="134" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>170</v>
       </c>
@@ -6673,39 +6737,39 @@
       </c>
       <c r="U135" s="48"/>
     </row>
-    <row r="136" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:21" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="D136" s="11">
-        <v>3</v>
-      </c>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="102">
+        <v>3</v>
+      </c>
+      <c r="E136" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="F136" s="101"/>
+      <c r="G136" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" s="94"/>
+      <c r="J136" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="K136" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="U136" s="48"/>
-    </row>
-    <row r="137" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U136" s="104"/>
+    </row>
+    <row r="137" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>170</v>
       </c>
@@ -6735,7 +6799,7 @@
       </c>
       <c r="U137" s="48"/>
     </row>
-    <row r="138" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>109</v>
       </c>
@@ -6765,7 +6829,7 @@
       </c>
       <c r="U138" s="48"/>
     </row>
-    <row r="139" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="53" t="s">
         <v>177</v>
       </c>
@@ -6795,7 +6859,7 @@
       </c>
       <c r="U139" s="48"/>
     </row>
-    <row r="140" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>178</v>
       </c>
@@ -6825,7 +6889,7 @@
       </c>
       <c r="U140" s="48"/>
     </row>
-    <row r="141" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
         <v>179</v>
       </c>
@@ -6855,7 +6919,7 @@
       </c>
       <c r="U141" s="48"/>
     </row>
-    <row r="142" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>170</v>
       </c>
@@ -6897,7 +6961,7 @@
       </c>
       <c r="U142" s="58"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>109</v>
       </c>
@@ -6926,7 +6990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="53" t="s">
         <v>177</v>
       </c>
@@ -6955,7 +7019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>178</v>
       </c>
@@ -6984,7 +7048,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="43" t="s">
         <v>179</v>
       </c>
@@ -7013,7 +7077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>170</v>
       </c>
@@ -7042,7 +7106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>109</v>
       </c>
@@ -7070,7 +7134,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="53" t="s">
         <v>177</v>
       </c>
@@ -7099,7 +7163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>178</v>
       </c>
@@ -7128,7 +7192,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43" t="s">
         <v>179</v>
       </c>
@@ -7157,7 +7221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>109</v>
       </c>
@@ -7192,7 +7256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>109</v>
       </c>
@@ -7227,7 +7291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="53" t="s">
         <v>177</v>
       </c>
@@ -7262,7 +7326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>178</v>
       </c>
@@ -7297,7 +7361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>109</v>
       </c>
@@ -7332,7 +7396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>109</v>
       </c>
@@ -7367,7 +7431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="53" t="s">
         <v>177</v>
       </c>
@@ -7402,7 +7466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>109</v>
       </c>
@@ -7437,7 +7501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="53" t="s">
         <v>177</v>
       </c>
@@ -7472,7 +7536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>109</v>
       </c>
@@ -7507,7 +7571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="53" t="s">
         <v>177</v>
       </c>
@@ -7542,7 +7606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>109</v>
       </c>
@@ -7577,7 +7641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>109</v>
       </c>
@@ -7612,7 +7676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>109</v>
       </c>
@@ -7645,7 +7709,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>178</v>
       </c>
@@ -7680,7 +7744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>109</v>
       </c>
@@ -7715,7 +7779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>178</v>
       </c>
@@ -7750,7 +7814,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>109</v>
       </c>
@@ -7785,7 +7849,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>178</v>
       </c>
@@ -7820,7 +7884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
         <v>178</v>
       </c>
@@ -7855,7 +7919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="53" t="s">
         <v>177</v>
       </c>
@@ -7925,40 +7989,40 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:11" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="B174" s="69" t="s">
+      <c r="B174" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D174" s="8">
-        <v>3</v>
-      </c>
-      <c r="E174" s="24" t="s">
+      <c r="D174" s="108">
+        <v>3</v>
+      </c>
+      <c r="E174" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="F174" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I174" s="25"/>
-      <c r="J174" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K174" s="9" t="s">
+      <c r="F174" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="G174" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" s="109"/>
+      <c r="J174" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K174" s="110" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>170</v>
       </c>
@@ -7993,7 +8057,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>109</v>
       </c>
@@ -8028,7 +8092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="53" t="s">
         <v>177</v>
       </c>
@@ -8063,7 +8127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="39" t="s">
         <v>178</v>
       </c>
@@ -8098,7 +8162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>170</v>
       </c>
@@ -8133,7 +8197,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>109</v>
       </c>
@@ -8168,7 +8232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="53" t="s">
         <v>177</v>
       </c>
@@ -8203,7 +8267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="39" t="s">
         <v>178</v>
       </c>
@@ -8238,7 +8302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>170</v>
       </c>
@@ -8273,7 +8337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>109</v>
       </c>
@@ -8308,7 +8372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="53" t="s">
         <v>177</v>
       </c>
@@ -8343,7 +8407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
         <v>178</v>
       </c>
@@ -8378,7 +8442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>170</v>
       </c>
@@ -8413,7 +8477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>109</v>
       </c>
@@ -8448,7 +8512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="39" t="s">
         <v>178</v>
       </c>
@@ -8483,7 +8547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>170</v>
       </c>
@@ -8518,7 +8582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>109</v>
       </c>
@@ -8553,7 +8617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="39" t="s">
         <v>178</v>
       </c>
@@ -8588,7 +8652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>170</v>
       </c>
@@ -8623,7 +8687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>109</v>
       </c>
@@ -8658,7 +8722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
         <v>178</v>
       </c>
@@ -8693,7 +8757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>170</v>
       </c>
@@ -8728,7 +8792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>109</v>
       </c>
@@ -8763,7 +8827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>109</v>
       </c>
@@ -8798,7 +8862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="53" t="s">
         <v>177</v>
       </c>
@@ -8833,7 +8897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
         <v>178</v>
       </c>
@@ -8868,7 +8932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="43" t="s">
         <v>179</v>
       </c>
@@ -8903,7 +8967,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>170</v>
       </c>
@@ -8932,7 +8996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>109</v>
       </c>
@@ -8960,7 +9024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="53" t="s">
         <v>177</v>
       </c>
@@ -8989,7 +9053,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
         <v>178</v>
       </c>
@@ -9018,7 +9082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>179</v>
       </c>
@@ -9047,7 +9111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>170</v>
       </c>
@@ -9075,7 +9139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>109</v>
       </c>
@@ -9104,7 +9168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="53" t="s">
         <v>177</v>
       </c>
@@ -9133,7 +9197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="39" t="s">
         <v>178</v>
       </c>
@@ -9162,7 +9226,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43" t="s">
         <v>179</v>
       </c>
@@ -9191,7 +9255,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="43" t="s">
         <v>179</v>
       </c>
@@ -9226,7 +9290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>170</v>
       </c>
@@ -9255,7 +9319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="53" t="s">
         <v>177</v>
       </c>
@@ -9284,7 +9348,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="43" t="s">
         <v>179</v>
       </c>
@@ -9313,7 +9377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>170</v>
       </c>
@@ -9338,7 +9402,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>109</v>
       </c>
@@ -9366,7 +9430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="53" t="s">
         <v>177</v>
       </c>
@@ -9395,7 +9459,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
         <v>179</v>
       </c>
@@ -9424,7 +9488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>170</v>
       </c>
@@ -9451,7 +9515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>109</v>
       </c>
@@ -9480,7 +9544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="43" t="s">
         <v>179</v>
       </c>
@@ -9509,7 +9573,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>170</v>
       </c>
@@ -9534,7 +9598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>109</v>
       </c>
@@ -9560,7 +9624,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>170</v>
       </c>
@@ -9586,7 +9650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
         <v>179</v>
       </c>
@@ -9612,7 +9676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="39" t="s">
         <v>178</v>
       </c>
@@ -9638,7 +9702,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="53" t="s">
         <v>177</v>
       </c>
@@ -9664,7 +9728,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>170</v>
       </c>
@@ -9690,7 +9754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>109</v>
       </c>
@@ -9716,7 +9780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="43" t="s">
         <v>179</v>
       </c>
@@ -9742,7 +9806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="39" t="s">
         <v>178</v>
       </c>
@@ -9768,7 +9832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="53" t="s">
         <v>177</v>
       </c>
@@ -9794,7 +9858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>170</v>
       </c>
@@ -9820,7 +9884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>109</v>
       </c>
@@ -9846,7 +9910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="43" t="s">
         <v>179</v>
       </c>
@@ -9872,7 +9936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="66" t="s">
         <v>178</v>
       </c>
@@ -9898,7 +9962,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="68" t="s">
         <v>177</v>
       </c>
@@ -9924,7 +9988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>170</v>
       </c>
@@ -9955,7 +10019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>109</v>
       </c>
@@ -9986,7 +10050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="53" t="s">
         <v>177</v>
       </c>
@@ -10017,7 +10081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="39" t="s">
         <v>178</v>
       </c>
@@ -10048,7 +10112,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="43" t="s">
         <v>179</v>
       </c>
@@ -10080,7 +10144,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K243" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K243" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AERO 490a"/>
+        <filter val="AERO 490b"/>
+        <filter val="INDU 490a"/>
+        <filter val="INDU 490b"/>
+        <filter val="MECH 490a"/>
+        <filter val="MECH 490b"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PRG">

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DBD2DA8-7BDD-4736-867D-ABD5762C4534}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9021562A-AA8D-4E32-B59B-0D160C06E501}"/>
   <bookViews>
-    <workbookView xWindow="-38175" yWindow="0" windowWidth="19005" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coursses!$A$1:$K$242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="284">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -443,9 +443,6 @@
     <t>General Education Humanities and Social Sciences Electives</t>
   </si>
   <si>
-    <t>ZZZZ 900</t>
-  </si>
-  <si>
     <t>ENG CORE</t>
   </si>
   <si>
@@ -882,6 +879,18 @@
   </si>
   <si>
     <t>COMP 352 or COEN 352; ENCS 282</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>W- gen elect</t>
+  </si>
+  <si>
+    <t>Course not related to Program (e.g., minor)</t>
+  </si>
+  <si>
+    <t>Z- OTHER</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1305,28 +1314,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1336,19 +1335,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,28 +1359,16 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1698,13 +1676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomRight" activeCell="B243" sqref="B243:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -1758,27 +1736,27 @@
         <v>131</v>
       </c>
       <c r="P1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" t="s">
         <v>164</v>
-      </c>
-      <c r="S1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="36">
         <v>4</v>
@@ -1802,13 +1780,13 @@
         <v>44</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -1820,19 +1798,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="36">
         <v>3</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -1850,13 +1828,13 @@
         <v>44</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -1868,23 +1846,23 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="36">
         <v>3.5</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="G4" s="11" t="s">
         <v>43</v>
       </c>
@@ -1898,13 +1876,13 @@
         <v>44</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1916,20 +1894,20 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="36">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="36">
-        <v>3</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
@@ -1946,19 +1924,19 @@
         <v>44</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="36">
         <v>3</v>
@@ -1982,25 +1960,25 @@
         <v>43</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="36">
         <v>3.75</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>43</v>
@@ -2024,19 +2002,19 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="36">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="D8" s="36">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>43</v>
@@ -2060,13 +2038,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="36">
         <v>3</v>
@@ -2096,19 +2074,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="36">
         <v>3.5</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>43</v>
@@ -2132,19 +2110,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="36">
         <v>3.5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>43</v>
@@ -2168,20 +2146,20 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="36">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="36">
-        <v>3</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>253</v>
-      </c>
       <c r="F12" s="19" t="s">
         <v>43</v>
       </c>
@@ -2198,25 +2176,25 @@
         <v>43</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="66">
         <v>3</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>43</v>
@@ -2232,19 +2210,19 @@
         <v>44</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>139</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>140</v>
       </c>
       <c r="D14" s="46">
         <v>3</v>
@@ -2262,13 +2240,13 @@
         <v>44</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>0</v>
@@ -2298,13 +2276,13 @@
         <v>44</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>1</v>
@@ -2334,13 +2312,13 @@
         <v>44</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>2</v>
@@ -2370,13 +2348,13 @@
         <v>44</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>3</v>
@@ -2406,13 +2384,13 @@
         <v>44</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>4</v>
@@ -2442,13 +2420,13 @@
         <v>44</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>5</v>
@@ -2478,13 +2456,13 @@
         <v>44</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>6</v>
@@ -2514,13 +2492,13 @@
         <v>44</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>7</v>
@@ -2550,13 +2528,13 @@
         <v>44</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>8</v>
@@ -2586,13 +2564,13 @@
         <v>44</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>9</v>
@@ -2622,13 +2600,13 @@
         <v>44</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>10</v>
@@ -2664,7 +2642,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>11</v>
@@ -2694,13 +2672,13 @@
         <v>44</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>12</v>
@@ -2730,13 +2708,13 @@
         <v>44</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>13</v>
@@ -2766,13 +2744,13 @@
         <v>44</v>
       </c>
       <c r="K28" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>14</v>
@@ -2802,19 +2780,19 @@
         <v>44</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="52">
         <v>3</v>
@@ -2832,19 +2810,19 @@
         <v>44</v>
       </c>
       <c r="K30" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="46">
         <v>3</v>
@@ -2862,19 +2840,19 @@
         <v>44</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="52">
         <v>3</v>
@@ -2892,13 +2870,13 @@
         <v>44</v>
       </c>
       <c r="K32" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>18</v>
@@ -2934,7 +2912,7 @@
     </row>
     <row r="34" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>20</v>
@@ -2970,7 +2948,7 @@
     </row>
     <row r="35" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>21</v>
@@ -3006,7 +2984,7 @@
     </row>
     <row r="36" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>22</v>
@@ -3042,13 +3020,13 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D37" s="36">
         <v>3.5</v>
@@ -3078,7 +3056,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>28</v>
@@ -3114,7 +3092,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>29</v>
@@ -3150,7 +3128,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>30</v>
@@ -3186,19 +3164,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D41" s="8">
         <v>3.5</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>43</v>
@@ -3222,13 +3200,13 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="52">
         <v>3</v>
@@ -3246,19 +3224,19 @@
         <v>44</v>
       </c>
       <c r="K42" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="46">
         <v>3</v>
@@ -3276,19 +3254,19 @@
         <v>44</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="36">
         <v>3</v>
@@ -3308,19 +3286,19 @@
         <v>44</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="36">
         <v>3</v>
@@ -3340,23 +3318,23 @@
         <v>44</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U45" s="3"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="8">
         <v>16</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="11" t="s">
@@ -3370,23 +3348,23 @@
         <v>44</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U46" s="3"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="10">
         <v>16</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="11" t="s">
@@ -3400,23 +3378,23 @@
         <v>44</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="8">
         <v>16</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="11" t="s">
@@ -3430,16 +3408,16 @@
         <v>44</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>133</v>
@@ -3462,19 +3440,19 @@
         <v>44</v>
       </c>
       <c r="K49" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U49" s="3"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="36">
         <v>4</v>
@@ -3504,19 +3482,19 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="36">
+        <v>3</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="D51" s="36">
-        <v>3</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>43</v>
@@ -3540,19 +3518,19 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="36">
         <v>3</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>0</v>
@@ -3570,28 +3548,28 @@
         <v>44</v>
       </c>
       <c r="K52" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="36">
         <v>3.5</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="G53" s="11" t="s">
         <v>43</v>
       </c>
@@ -3605,25 +3583,25 @@
         <v>44</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="36">
+        <v>3</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="36">
-        <v>3</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="F54" s="19" t="s">
         <v>43</v>
       </c>
@@ -3640,18 +3618,18 @@
         <v>44</v>
       </c>
       <c r="K54" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="36">
         <v>3</v>
@@ -3675,24 +3653,24 @@
         <v>43</v>
       </c>
       <c r="K55" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" s="36">
         <v>3.5</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>43</v>
@@ -3715,19 +3693,19 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="36">
         <v>3.5</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>43</v>
@@ -3750,19 +3728,19 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C58" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="36">
+        <v>3</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="D58" s="36">
-        <v>3</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>43</v>
@@ -3785,19 +3763,19 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" s="36">
         <v>3</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>43</v>
@@ -3820,20 +3798,20 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="36">
+        <v>3</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="36">
-        <v>3</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>253</v>
-      </c>
       <c r="F60" s="19" t="s">
         <v>43</v>
       </c>
@@ -3850,24 +3828,24 @@
         <v>43</v>
       </c>
       <c r="K60" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="66">
         <v>3</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="65" t="s">
         <v>43</v>
@@ -3883,18 +3861,18 @@
         <v>44</v>
       </c>
       <c r="K61" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="D62" s="26">
         <v>3</v>
@@ -3912,12 +3890,12 @@
         <v>44</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>0</v>
@@ -3947,12 +3925,12 @@
         <v>44</v>
       </c>
       <c r="K63" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>1</v>
@@ -3982,12 +3960,12 @@
         <v>44</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>2</v>
@@ -4017,12 +3995,12 @@
         <v>44</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>3</v>
@@ -4052,12 +4030,12 @@
         <v>44</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>4</v>
@@ -4087,12 +4065,12 @@
         <v>44</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>5</v>
@@ -4122,12 +4100,12 @@
         <v>44</v>
       </c>
       <c r="K68" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>6</v>
@@ -4157,12 +4135,12 @@
         <v>44</v>
       </c>
       <c r="K69" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>7</v>
@@ -4192,12 +4170,12 @@
         <v>44</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>9</v>
@@ -4227,12 +4205,12 @@
         <v>44</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>10</v>
@@ -4267,7 +4245,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>11</v>
@@ -4297,12 +4275,12 @@
         <v>44</v>
       </c>
       <c r="K73" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>12</v>
@@ -4332,12 +4310,12 @@
         <v>44</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>13</v>
@@ -4367,12 +4345,12 @@
         <v>44</v>
       </c>
       <c r="K75" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B76" s="24" t="s">
         <v>14</v>
@@ -4402,18 +4380,18 @@
         <v>44</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" s="32">
         <v>3</v>
@@ -4431,18 +4409,18 @@
         <v>44</v>
       </c>
       <c r="K77" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D78" s="26">
         <v>3</v>
@@ -4460,18 +4438,18 @@
         <v>44</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" s="32">
         <v>3</v>
@@ -4489,12 +4467,12 @@
         <v>44</v>
       </c>
       <c r="K79" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>18</v>
@@ -4529,7 +4507,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>25</v>
@@ -4564,7 +4542,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>26</v>
@@ -4599,13 +4577,13 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D83" s="36">
         <v>3.5</v>
@@ -4634,19 +4612,19 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D84" s="61">
         <v>3.75</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
@@ -4663,13 +4641,13 @@
       <c r="J84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K84" s="104" t="s">
+      <c r="K84" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>28</v>
@@ -4698,13 +4676,13 @@
       <c r="J85" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K85" s="104" t="s">
+      <c r="K85" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="57" t="s">
         <v>29</v>
@@ -4733,13 +4711,13 @@
       <c r="J86" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K86" s="104" t="s">
+      <c r="K86" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="57" t="s">
         <v>30</v>
@@ -4768,13 +4746,13 @@
       <c r="J87" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K87" s="104" t="s">
+      <c r="K87" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B88" s="57" t="s">
         <v>31</v>
@@ -4803,13 +4781,13 @@
       <c r="J88" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K88" s="104" t="s">
+      <c r="K88" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" s="57" t="s">
         <v>73</v>
@@ -4838,13 +4816,13 @@
       <c r="J89" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K89" s="104" t="s">
+      <c r="K89" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="57" t="s">
         <v>32</v>
@@ -4873,39 +4851,39 @@
       <c r="J90" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K90" s="104" t="s">
+      <c r="K90" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="D91" s="92">
+        <v>3.5</v>
+      </c>
+      <c r="E91" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="99">
-        <v>3.5</v>
-      </c>
-      <c r="E91" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="F91" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I91" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J91" s="106" t="s">
+      <c r="F91" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="96" t="s">
         <v>44</v>
       </c>
       <c r="K91" s="9" t="s">
@@ -4914,75 +4892,75 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="B92" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="102">
-        <v>3</v>
-      </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="98"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="I92" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="J92" s="109" t="s">
+      <c r="C92" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="95">
+        <v>3</v>
+      </c>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="99" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="101">
-        <v>3</v>
-      </c>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="I93" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="J93" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="94">
+        <v>3</v>
+      </c>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="98" t="s">
         <v>44</v>
       </c>
       <c r="K93" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="8">
         <v>16</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="11" t="s">
@@ -4996,13 +4974,13 @@
         <v>44</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P94" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q94" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R94" s="48">
         <v>4</v>
@@ -5014,17 +4992,17 @@
     </row>
     <row r="95" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="10">
         <v>16</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="11" t="s">
@@ -5038,13 +5016,13 @@
         <v>44</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P95" s="44" t="s">
         <v>109</v>
       </c>
       <c r="Q95" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R95" s="48">
         <v>2</v>
@@ -5056,17 +5034,17 @@
     </row>
     <row r="96" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="8">
         <v>16</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="11" t="s">
@@ -5080,13 +5058,13 @@
         <v>44</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P96" s="44" t="s">
         <v>109</v>
       </c>
       <c r="Q96" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R96" s="48">
         <v>3</v>
@@ -5098,10 +5076,10 @@
     </row>
     <row r="97" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>133</v>
@@ -5124,13 +5102,13 @@
         <v>44</v>
       </c>
       <c r="K97" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P97" s="44" t="s">
         <v>109</v>
       </c>
       <c r="Q97" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R97" s="48">
         <v>4</v>
@@ -5142,13 +5120,13 @@
     </row>
     <row r="98" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>180</v>
-      </c>
       <c r="C98" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D98" s="36">
         <v>4</v>
@@ -5178,19 +5156,19 @@
     </row>
     <row r="99" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="36">
+        <v>3</v>
+      </c>
+      <c r="E99" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="D99" s="36">
-        <v>3</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>43</v>
@@ -5214,19 +5192,19 @@
     </row>
     <row r="100" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="36">
+        <v>3</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" s="36">
-        <v>3</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="F100" s="19" t="s">
         <v>0</v>
@@ -5244,29 +5222,29 @@
         <v>44</v>
       </c>
       <c r="K100" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U100" s="49"/>
     </row>
     <row r="101" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D101" s="36">
         <v>3.5</v>
       </c>
       <c r="E101" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F101" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="G101" s="11" t="s">
         <v>43</v>
       </c>
@@ -5280,26 +5258,26 @@
         <v>44</v>
       </c>
       <c r="K101" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U101" s="49"/>
     </row>
     <row r="102" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D102" s="36">
+        <v>3</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D102" s="36">
-        <v>3</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="F102" s="19" t="s">
         <v>43</v>
       </c>
@@ -5316,19 +5294,19 @@
         <v>44</v>
       </c>
       <c r="K102" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U102" s="49"/>
     </row>
     <row r="103" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D103" s="36">
         <v>3</v>
@@ -5352,25 +5330,25 @@
         <v>43</v>
       </c>
       <c r="K103" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U103" s="49"/>
     </row>
     <row r="104" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C104" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="36">
+        <v>3</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="D104" s="36">
-        <v>3</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="F104" s="19" t="s">
         <v>43</v>
@@ -5394,19 +5372,19 @@
     </row>
     <row r="105" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="36">
+        <v>3</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="D105" s="36">
-        <v>3</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="F105" s="19" t="s">
         <v>43</v>
@@ -5430,20 +5408,20 @@
     </row>
     <row r="106" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" s="36">
+        <v>3</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D106" s="36">
-        <v>3</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>253</v>
-      </c>
       <c r="F106" s="19" t="s">
         <v>43</v>
       </c>
@@ -5460,25 +5438,25 @@
         <v>43</v>
       </c>
       <c r="K106" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U106" s="49"/>
     </row>
     <row r="107" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B107" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D107" s="66">
         <v>3</v>
       </c>
       <c r="E107" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F107" s="65" t="s">
         <v>43</v>
@@ -5494,19 +5472,19 @@
         <v>44</v>
       </c>
       <c r="K107" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U107" s="49"/>
     </row>
     <row r="108" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B108" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="35" t="s">
         <v>139</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>140</v>
       </c>
       <c r="D108" s="36">
         <v>3</v>
@@ -5524,19 +5502,19 @@
         <v>44</v>
       </c>
       <c r="K108" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U108" s="49"/>
     </row>
     <row r="109" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D109" s="36">
         <v>3.5</v>
@@ -5566,7 +5544,7 @@
         <v>130</v>
       </c>
       <c r="Q109" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R109" s="28">
         <v>2</v>
@@ -5578,13 +5556,13 @@
     </row>
     <row r="110" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D110" s="36">
         <v>3</v>
@@ -5608,13 +5586,13 @@
         <v>44</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P110" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Q110" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R110" s="28">
         <v>3</v>
@@ -5626,13 +5604,13 @@
     </row>
     <row r="111" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D111" s="36">
         <v>3</v>
@@ -5662,7 +5640,7 @@
         <v>130</v>
       </c>
       <c r="Q111" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R111" s="28">
         <v>4</v>
@@ -5674,19 +5652,19 @@
     </row>
     <row r="112" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C112" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="36">
+        <v>3</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="D112" s="36">
-        <v>3</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>43</v>
@@ -5710,7 +5688,7 @@
         <v>109</v>
       </c>
       <c r="Q112" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R112" s="28">
         <v>2</v>
@@ -5722,19 +5700,19 @@
     </row>
     <row r="113" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D113" s="36">
         <v>3.5</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>43</v>
@@ -5758,7 +5736,7 @@
         <v>109</v>
       </c>
       <c r="Q113" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R113" s="28">
         <v>3</v>
@@ -5770,19 +5748,19 @@
     </row>
     <row r="114" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" s="36">
+        <v>3</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="D114" s="36">
-        <v>3</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>43</v>
@@ -5806,7 +5784,7 @@
         <v>109</v>
       </c>
       <c r="Q114" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R114" s="28">
         <v>4</v>
@@ -5818,19 +5796,19 @@
     </row>
     <row r="115" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="36">
+        <v>3</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="D115" s="36">
-        <v>3</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>43</v>
@@ -5854,19 +5832,19 @@
     </row>
     <row r="116" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D116" s="36">
         <v>3.5</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F116" s="19" t="s">
         <v>43</v>
@@ -5890,19 +5868,19 @@
     </row>
     <row r="117" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D117" s="36">
         <v>3.5</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F117" s="19" t="s">
         <v>43</v>
@@ -5926,19 +5904,19 @@
     </row>
     <row r="118" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118" s="36">
         <v>3.5</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F118" s="19" t="s">
         <v>43</v>
@@ -5962,19 +5940,19 @@
     </row>
     <row r="119" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" s="36">
         <v>3.5</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F119" s="19" t="s">
         <v>43</v>
@@ -5998,7 +5976,7 @@
     </row>
     <row r="120" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" s="40" t="s">
         <v>0</v>
@@ -6028,13 +6006,13 @@
         <v>44</v>
       </c>
       <c r="K120" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U120" s="29"/>
     </row>
     <row r="121" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>1</v>
@@ -6064,13 +6042,13 @@
         <v>44</v>
       </c>
       <c r="K121" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U121" s="29"/>
     </row>
     <row r="122" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122" s="40" t="s">
         <v>2</v>
@@ -6100,13 +6078,13 @@
         <v>44</v>
       </c>
       <c r="K122" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U122" s="29"/>
     </row>
     <row r="123" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>3</v>
@@ -6136,13 +6114,13 @@
         <v>44</v>
       </c>
       <c r="K123" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U123" s="29"/>
     </row>
     <row r="124" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B124" s="40" t="s">
         <v>4</v>
@@ -6172,13 +6150,13 @@
         <v>44</v>
       </c>
       <c r="K124" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U124" s="29"/>
     </row>
     <row r="125" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>5</v>
@@ -6208,13 +6186,13 @@
         <v>44</v>
       </c>
       <c r="K125" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U125" s="29"/>
     </row>
     <row r="126" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>6</v>
@@ -6244,13 +6222,13 @@
         <v>44</v>
       </c>
       <c r="K126" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P126" s="34" t="s">
         <v>130</v>
       </c>
       <c r="Q126" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R126" s="38">
         <v>2</v>
@@ -6262,7 +6240,7 @@
     </row>
     <row r="127" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>7</v>
@@ -6292,13 +6270,13 @@
         <v>44</v>
       </c>
       <c r="K127" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P127" s="40" t="s">
         <v>130</v>
       </c>
       <c r="Q127" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R127" s="38">
         <v>3</v>
@@ -6310,7 +6288,7 @@
     </row>
     <row r="128" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>9</v>
@@ -6340,13 +6318,13 @@
         <v>44</v>
       </c>
       <c r="K128" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P128" s="34" t="s">
         <v>130</v>
       </c>
       <c r="Q128" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R128" s="38">
         <v>4</v>
@@ -6358,7 +6336,7 @@
     </row>
     <row r="129" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>11</v>
@@ -6388,13 +6366,13 @@
         <v>44</v>
       </c>
       <c r="K129" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P129" s="34" t="s">
         <v>109</v>
       </c>
       <c r="Q129" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R129" s="38">
         <v>2</v>
@@ -6406,7 +6384,7 @@
     </row>
     <row r="130" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>12</v>
@@ -6436,13 +6414,13 @@
         <v>44</v>
       </c>
       <c r="K130" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P130" s="34" t="s">
         <v>109</v>
       </c>
       <c r="Q130" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R130" s="38">
         <v>3</v>
@@ -6454,7 +6432,7 @@
     </row>
     <row r="131" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="40" t="s">
         <v>13</v>
@@ -6484,13 +6462,13 @@
         <v>44</v>
       </c>
       <c r="K131" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P131" s="34" t="s">
         <v>109</v>
       </c>
       <c r="Q131" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R131" s="38">
         <v>4</v>
@@ -6502,7 +6480,7 @@
     </row>
     <row r="132" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>14</v>
@@ -6532,19 +6510,19 @@
         <v>44</v>
       </c>
       <c r="K132" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U132" s="39"/>
     </row>
     <row r="133" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B133" s="40" t="s">
         <v>61</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D133" s="42">
         <v>3</v>
@@ -6562,19 +6540,19 @@
         <v>44</v>
       </c>
       <c r="K133" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U133" s="39"/>
     </row>
     <row r="134" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" s="36">
         <v>3</v>
@@ -6592,19 +6570,19 @@
         <v>44</v>
       </c>
       <c r="K134" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U134" s="39"/>
     </row>
     <row r="135" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D135" s="42">
         <v>3</v>
@@ -6622,25 +6600,25 @@
         <v>44</v>
       </c>
       <c r="K135" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U135" s="39"/>
     </row>
     <row r="136" spans="1:21" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D136" s="8">
         <v>3.5</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>43</v>
@@ -6664,13 +6642,13 @@
     </row>
     <row r="137" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B137" s="40" t="s">
         <v>120</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D137" s="42">
         <v>3</v>
@@ -6688,19 +6666,19 @@
         <v>44</v>
       </c>
       <c r="K137" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U137" s="39"/>
     </row>
     <row r="138" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="36">
         <v>3</v>
@@ -6718,25 +6696,25 @@
         <v>44</v>
       </c>
       <c r="K138" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U138" s="39"/>
     </row>
     <row r="139" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D139" s="36">
         <v>4</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F139" s="19" t="s">
         <v>43</v>
@@ -6760,13 +6738,13 @@
     </row>
     <row r="140" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D140" s="36">
         <v>3</v>
@@ -6786,19 +6764,19 @@
         <v>44</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U140" s="39"/>
     </row>
     <row r="141" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D141" s="36">
         <v>3</v>
@@ -6818,19 +6796,19 @@
         <v>44</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U141" s="39"/>
     </row>
     <row r="142" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D142" s="36">
         <v>3</v>
@@ -6850,13 +6828,13 @@
         <v>44</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P142" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q142" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R142" s="48">
         <v>2</v>
@@ -6868,88 +6846,88 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B143" s="83" t="s">
-        <v>158</v>
+        <v>178</v>
+      </c>
+      <c r="B143" s="56" t="s">
+        <v>157</v>
       </c>
       <c r="D143" s="8">
         <v>16</v>
       </c>
       <c r="E143" t="s">
+        <v>160</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K143" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="G143" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I143" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J143" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B144" s="84" t="s">
-        <v>159</v>
+        <v>178</v>
+      </c>
+      <c r="B144" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="D144" s="10">
         <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I144" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J144" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J144" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K144" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B145" s="83" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="B145" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="D145" s="8">
         <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>159</v>
-      </c>
-      <c r="G145" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I145" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J145" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J145" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K145" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="C146" s="60" t="s">
         <v>133</v>
@@ -6972,243 +6950,239 @@
         <v>44</v>
       </c>
       <c r="K146" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B147" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="93" t="s">
-        <v>168</v>
-      </c>
       <c r="D147" s="10">
         <v>3</v>
       </c>
-      <c r="E147" s="93"/>
-      <c r="F147" s="93"/>
-      <c r="G147" s="104"/>
-      <c r="H147" s="104"/>
-      <c r="I147" s="104"/>
-      <c r="J147" s="105" t="s">
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="J147" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B148" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C148" s="93" t="s">
-        <v>140</v>
-      </c>
       <c r="D148" s="10">
         <v>3</v>
       </c>
-      <c r="E148" s="93"/>
-      <c r="F148" s="93"/>
-      <c r="G148" s="104"/>
-      <c r="H148" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I148" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J148" s="104" t="s">
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="H148" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K148" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="94" t="s">
+      <c r="C149" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D149" s="14">
         <v>3</v>
       </c>
-      <c r="E149" s="94" t="s">
+      <c r="E149" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F149" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I149" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J149" s="105" t="s">
+      <c r="F149" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K149" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B150" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="93" t="s">
+      <c r="C150" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D150" s="10">
         <v>1.5</v>
       </c>
-      <c r="E150" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F150" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G150" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I150" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J150" s="104" t="s">
+      <c r="E150" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K150" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B151" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="94" t="s">
+      <c r="C151" s="59" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="14">
         <v>1.5</v>
       </c>
-      <c r="E151" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G151" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H151" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J151" s="105" t="s">
+      <c r="E151" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J151" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K151" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B152" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D152" s="10">
         <v>3</v>
       </c>
-      <c r="E152" s="93" t="s">
+      <c r="E152" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F152" s="93" t="s">
+      <c r="F152" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G152" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I152" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J152" s="104" t="s">
+      <c r="G152" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B153" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="94" t="s">
+      <c r="C153" s="59" t="s">
         <v>52</v>
       </c>
       <c r="D153" s="14">
         <v>3</v>
       </c>
-      <c r="E153" s="94" t="s">
+      <c r="E153" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F153" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G153" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H153" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I153" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J153" s="105" t="s">
+      <c r="F153" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I153" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B154" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B154" s="55" t="s">
         <v>110</v>
       </c>
       <c r="C154" s="20" t="s">
@@ -7223,16 +7197,16 @@
       <c r="F154" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="104" t="s">
+      <c r="G154" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H154" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I154" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J154" s="104" t="s">
+      <c r="I154" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K154" s="11" t="s">
@@ -7241,33 +7215,33 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B155" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="94" t="s">
+      <c r="C155" s="59" t="s">
         <v>60</v>
       </c>
       <c r="D155" s="14">
         <v>3</v>
       </c>
-      <c r="E155" s="94" t="s">
+      <c r="E155" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F155" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G155" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I155" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J155" s="105" t="s">
+      <c r="F155" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K155" s="15" t="s">
@@ -7276,68 +7250,68 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B156" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="93" t="s">
+      <c r="C156" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D156" s="10">
         <v>3</v>
       </c>
-      <c r="E156" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F156" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G156" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J156" s="104" t="s">
+      <c r="E156" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I156" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K156" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B157" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="94" t="s">
+      <c r="C157" s="59" t="s">
         <v>63</v>
       </c>
       <c r="D157" s="14">
         <v>3</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F157" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G157" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H157" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I157" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J157" s="105" t="s">
+      <c r="F157" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K157" s="15" t="s">
@@ -7346,138 +7320,138 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B158" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="93" t="s">
+      <c r="C158" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D158" s="10">
         <v>3</v>
       </c>
-      <c r="E158" s="93" t="s">
+      <c r="E158" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F158" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G158" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I158" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J158" s="104" t="s">
+      <c r="F158" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K158" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C159" s="94" t="s">
+      <c r="C159" s="59" t="s">
         <v>68</v>
       </c>
       <c r="D159" s="14">
         <v>3</v>
       </c>
-      <c r="E159" s="94" t="s">
+      <c r="E159" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F159" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G159" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H159" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I159" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J159" s="105" t="s">
+      <c r="F159" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J159" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K159" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B160" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="93" t="s">
+      <c r="C160" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D160" s="10">
         <v>3</v>
       </c>
-      <c r="E160" s="93" t="s">
+      <c r="E160" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F160" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G160" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J160" s="104" t="s">
+      <c r="F160" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="C161" s="88" t="s">
-        <v>273</v>
+        <v>169</v>
+      </c>
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" t="s">
+        <v>272</v>
       </c>
       <c r="D161" s="36">
         <v>3</v>
       </c>
-      <c r="E161" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="F161" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G161" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H161" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J161" s="104" t="s">
+      <c r="E161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H161" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K161" s="11" t="s">
@@ -7486,33 +7460,33 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="s">
         <v>111</v>
       </c>
-      <c r="C162" s="88" t="s">
-        <v>274</v>
+      <c r="C162" t="s">
+        <v>273</v>
       </c>
       <c r="D162" s="36">
         <v>3.5</v>
       </c>
-      <c r="E162" s="88" t="s">
+      <c r="E162" t="s">
         <v>12</v>
       </c>
-      <c r="F162" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G162" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H162" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J162" s="104" t="s">
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J162" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K162" s="11" t="s">
@@ -7521,33 +7495,33 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C163" s="94" t="s">
+      <c r="C163" s="59" t="s">
         <v>121</v>
       </c>
       <c r="D163" s="14">
         <v>3</v>
       </c>
-      <c r="E163" s="94" t="s">
+      <c r="E163" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F163" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G163" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H163" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I163" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J163" s="105" t="s">
+      <c r="F163" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" s="62" t="s">
         <v>43</v>
       </c>
       <c r="K163" s="15" t="s">
@@ -7556,33 +7530,33 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B164" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C164" s="93" t="s">
+      <c r="C164" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D164" s="10">
         <v>3</v>
       </c>
-      <c r="E164" s="93" t="s">
+      <c r="E164" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F164" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G164" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H164" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I164" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J164" s="104" t="s">
+      <c r="F164" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I164" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J164" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K164" s="11" t="s">
@@ -7591,33 +7565,33 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C165" s="94" t="s">
+      <c r="C165" s="59" t="s">
         <v>123</v>
       </c>
       <c r="D165" s="14">
         <v>3.5</v>
       </c>
-      <c r="E165" s="94" t="s">
+      <c r="E165" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F165" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H165" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="J165" s="105" t="s">
+      <c r="F165" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G165" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K165" s="15" t="s">
@@ -7626,33 +7600,33 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C166" s="94" t="s">
-        <v>172</v>
+      <c r="C166" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="D166" s="14">
         <v>3.5</v>
       </c>
-      <c r="E166" s="94" t="s">
+      <c r="E166" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F166" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G166" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H166" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I166" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J166" s="105" t="s">
+      <c r="F166" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J166" s="62" t="s">
         <v>43</v>
       </c>
       <c r="K166" s="11" t="s">
@@ -7661,33 +7635,33 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C167" s="93" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="B167" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="D167" s="10">
         <v>3</v>
       </c>
-      <c r="E167" s="93" t="s">
+      <c r="E167" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F167" s="93" t="s">
+      <c r="F167" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H167" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I167" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J167" s="104" t="s">
+      <c r="G167" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J167" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K167" s="11" t="s">
@@ -7696,33 +7670,33 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C168" s="93" t="s">
+      <c r="C168" s="20" t="s">
         <v>125</v>
       </c>
       <c r="D168" s="10">
         <v>3</v>
       </c>
-      <c r="E168" s="93" t="s">
+      <c r="E168" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F168" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G168" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I168" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J168" s="104" t="s">
+      <c r="F168" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I168" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J168" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K168" s="11" t="s">
@@ -7731,33 +7705,33 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C169" s="94" t="s">
+      <c r="C169" s="59" t="s">
         <v>126</v>
       </c>
       <c r="D169" s="14">
         <v>3</v>
       </c>
-      <c r="E169" s="94" t="s">
+      <c r="E169" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F169" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G169" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I169" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="J169" s="105" t="s">
+      <c r="F169" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H169" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I169" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J169" s="62" t="s">
         <v>44</v>
       </c>
       <c r="K169" s="15" t="s">
@@ -7766,33 +7740,33 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C170" s="93" t="s">
+      <c r="C170" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D170" s="10">
         <v>3</v>
       </c>
-      <c r="E170" s="93" t="s">
+      <c r="E170" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F170" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G170" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I170" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J170" s="104" t="s">
+      <c r="F170" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I170" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J170" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K170" s="11" t="s">
@@ -7801,33 +7775,33 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="94" t="s">
+      <c r="C171" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D171" s="14">
         <v>3.5</v>
       </c>
-      <c r="E171" s="94" t="s">
+      <c r="E171" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F171" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G171" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I171" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J171" s="105" t="s">
+      <c r="F171" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G171" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I171" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J171" s="62" t="s">
         <v>43</v>
       </c>
       <c r="K171" s="15" t="s">
@@ -7836,33 +7810,33 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C172" s="93" t="s">
+      <c r="C172" s="20" t="s">
         <v>127</v>
       </c>
       <c r="D172" s="10">
         <v>3.5</v>
       </c>
-      <c r="E172" s="93" t="s">
+      <c r="E172" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F172" s="93" t="s">
+      <c r="F172" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G172" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H172" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I172" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J172" s="104" t="s">
+      <c r="G172" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I172" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J172" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K172" s="11" t="s">
@@ -7871,33 +7845,33 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="C173" s="93" t="s">
-        <v>175</v>
       </c>
       <c r="D173" s="10">
         <v>3.5</v>
       </c>
-      <c r="E173" s="93" t="s">
+      <c r="E173" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F173" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G173" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H173" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I173" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J173" s="104" t="s">
+      <c r="F173" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I173" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J173" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K173" s="11" t="s">
@@ -7906,33 +7880,33 @@
     </row>
     <row r="174" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B174" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C174" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" s="20" t="s">
         <v>128</v>
       </c>
       <c r="D174" s="10">
         <v>3</v>
       </c>
-      <c r="E174" s="93" t="s">
+      <c r="E174" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F174" s="93" t="s">
+      <c r="F174" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G174" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="H174" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I174" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J174" s="104" t="s">
+      <c r="G174" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J174" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K174" s="11" t="s">
@@ -7941,29 +7915,29 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B175" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C175" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C175" s="89" t="s">
         <v>128</v>
       </c>
       <c r="D175" s="74">
         <v>3</v>
       </c>
-      <c r="E175" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="F175" s="96"/>
-      <c r="G175" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="H175" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="I175" s="107"/>
-      <c r="J175" s="107" t="s">
+      <c r="E175" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="F175" s="89"/>
+      <c r="G175" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" s="97"/>
+      <c r="J175" s="97" t="s">
         <v>44</v>
       </c>
       <c r="K175" s="67" t="s">
@@ -7972,42 +7946,42 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B176" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C176" s="94" t="s">
+      <c r="C176" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D176" s="14">
+        <v>3</v>
+      </c>
+      <c r="E176" s="59"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="62"/>
+      <c r="H176" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J176" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="D176" s="14">
-        <v>3</v>
-      </c>
-      <c r="E176" s="94"/>
-      <c r="F176" s="94"/>
-      <c r="G176" s="105"/>
-      <c r="H176" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I176" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J176" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="K176" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="84" t="s">
-        <v>137</v>
+        <v>169</v>
+      </c>
+      <c r="B177" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D177" s="10">
         <v>3</v>
@@ -8024,18 +7998,18 @@
         <v>44</v>
       </c>
       <c r="K177" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B178" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D178" s="14">
         <v>3</v>
@@ -8053,12 +8027,12 @@
         <v>44</v>
       </c>
       <c r="K178" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" s="55" t="s">
         <v>28</v>
@@ -8093,7 +8067,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B180" s="54" t="s">
         <v>29</v>
@@ -8128,7 +8102,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="55" t="s">
         <v>30</v>
@@ -8163,7 +8137,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B182" s="54" t="s">
         <v>31</v>
@@ -8198,7 +8172,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="55" t="s">
         <v>73</v>
@@ -8233,7 +8207,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="54" t="s">
         <v>32</v>
@@ -8268,7 +8242,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" s="55" t="s">
         <v>33</v>
@@ -8303,13 +8277,13 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B186" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C186" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D186" s="14">
         <v>3</v>
@@ -8327,18 +8301,18 @@
         <v>44</v>
       </c>
       <c r="K186" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D187" s="10">
         <v>3</v>
@@ -8355,18 +8329,18 @@
         <v>44</v>
       </c>
       <c r="K187" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C188" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D188" s="14">
         <v>3</v>
@@ -8384,18 +8358,18 @@
         <v>44</v>
       </c>
       <c r="K188" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B189" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D189" s="10">
         <v>3</v>
@@ -8409,18 +8383,18 @@
         <v>44</v>
       </c>
       <c r="K189" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C190" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D190" s="14">
         <v>3</v>
@@ -8435,19 +8409,19 @@
       <c r="J190" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K190" s="105" t="s">
-        <v>147</v>
+      <c r="K190" s="62" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D191" s="10">
         <v>3</v>
@@ -8461,1416 +8435,1419 @@
         <v>44</v>
       </c>
       <c r="K191" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B192" s="83" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="B192" s="56" t="s">
+        <v>157</v>
       </c>
       <c r="D192" s="8">
         <v>16</v>
       </c>
       <c r="E192" t="s">
+        <v>160</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I192" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J192" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K192" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="G192" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I192" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J192" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K192" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B193" s="84" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="B193" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="D193" s="8">
         <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>158</v>
-      </c>
-      <c r="G193" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I193" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J193" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I193" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J193" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K193" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B194" s="83" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="B194" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="D194" s="8">
         <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>163</v>
-      </c>
-      <c r="G194" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I194" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J194" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I194" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J194" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K194" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B195" s="54" t="s">
+      <c r="A195" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B195" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D195" s="8">
+        <v>3</v>
+      </c>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D196" s="10">
+        <v>3</v>
+      </c>
+      <c r="E196" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F196" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H196" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I196" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J196" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K196" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C195" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D195" s="14">
-        <v>3</v>
-      </c>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="H195" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="I195" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="J195" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="K195" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B196" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C196" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="D196" s="8">
-        <v>3</v>
-      </c>
-      <c r="E196" s="92"/>
-      <c r="F196" s="92"/>
-      <c r="G196" s="103"/>
-      <c r="H196" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="I196" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J196" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K196" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="B197" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I197" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J197" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B197" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D197" s="10">
-        <v>3</v>
-      </c>
-      <c r="E197" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="F197" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G197" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H197" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I197" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J197" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K197" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F198" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I198" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J198" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B198" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D198" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E198" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="F198" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G198" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H198" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="I198" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J198" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K198" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="B199" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" s="8">
+        <v>3</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F199" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B199" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D199" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E199" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F199" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G199" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H199" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I199" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J199" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K199" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="B200" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" s="10">
+        <v>3</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F200" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H200" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J200" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K200" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B200" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D200" s="8">
-        <v>3</v>
-      </c>
-      <c r="E200" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="G200" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H200" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="I200" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J200" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K200" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="B201" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="8">
+        <v>3</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H201" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B201" s="84" t="s">
+      <c r="B202" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D202" s="10">
+        <v>3</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F202" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H202" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I202" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J202" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B203" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="E203" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F203" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D201" s="10">
-        <v>3</v>
-      </c>
-      <c r="E201" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="F201" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G201" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H201" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I201" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J201" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K201" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="G203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B202" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D202" s="8">
-        <v>3</v>
-      </c>
-      <c r="E202" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F202" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G202" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H202" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="I202" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J202" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K202" s="9" t="s">
+      <c r="B204" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" s="10">
+        <v>3</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I204" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J204" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K204" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B203" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="D203" s="10">
-        <v>3</v>
-      </c>
-      <c r="E203" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="F203" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G203" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H203" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I203" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J203" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K203" s="11" t="s">
+      <c r="B205" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="8">
+        <v>3</v>
+      </c>
+      <c r="E205" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I205" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J205" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="10">
+        <v>3</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H206" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I206" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J206" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K206" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B204" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D204" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="E204" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F204" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G204" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H204" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I204" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J204" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K204" s="9" t="s">
+      <c r="B207" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" s="8">
+        <v>3</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F207" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H207" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I207" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J207" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B205" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D205" s="10">
-        <v>3</v>
-      </c>
-      <c r="E205" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="F205" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G205" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H205" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I205" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J205" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K205" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="B208" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D208" s="10">
+        <v>3</v>
+      </c>
+      <c r="E208" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F208" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H208" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I208" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J208" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K208" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B206" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D206" s="8">
-        <v>3</v>
-      </c>
-      <c r="E206" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="F206" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G206" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H206" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="I206" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J206" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K206" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="B209" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" s="8">
+        <v>3</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G209" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H209" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I209" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B207" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="D207" s="10">
-        <v>3</v>
-      </c>
-      <c r="E207" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="F207" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G207" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H207" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I207" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J207" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K207" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B208" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D208" s="8">
-        <v>3</v>
-      </c>
-      <c r="E208" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F208" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G208" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H208" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="I208" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J208" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K208" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B209" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D209" s="10">
-        <v>3</v>
-      </c>
-      <c r="E209" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="F209" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G209" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H209" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I209" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J209" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K209" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D210" s="8">
-        <v>3</v>
-      </c>
-      <c r="E210" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="F210" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G210" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="H210" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="I210" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="J210" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K210" s="9" t="s">
-        <v>135</v>
+      <c r="B210" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210" s="10">
+        <v>3</v>
+      </c>
+      <c r="E210" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I210" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J210" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B211" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="93" t="s">
-        <v>70</v>
+      <c r="B211" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="D211" s="10">
         <v>3</v>
       </c>
-      <c r="E211" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="F211" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G211" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H211" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I211" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J211" s="104" t="s">
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="H211" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I211" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J211" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K211" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B212" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C212" s="93" t="s">
+      <c r="B212" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D212" s="8">
+        <v>3</v>
+      </c>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I212" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J212" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K212" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D212" s="10">
-        <v>3</v>
-      </c>
-      <c r="E212" s="93"/>
-      <c r="F212" s="93"/>
-      <c r="G212" s="104"/>
-      <c r="H212" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I212" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J212" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K212" s="11" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B213" s="56" t="s">
+      <c r="B213" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C213" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D213" s="8">
-        <v>3</v>
-      </c>
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="23"/>
-      <c r="H213" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I213" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J213" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K213" s="9" t="s">
-        <v>146</v>
+      <c r="C213" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D213" s="10">
+        <v>3</v>
+      </c>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="H213" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I213" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J213" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K213" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B214" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D214" s="10">
-        <v>3</v>
-      </c>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="H214" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I214" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J214" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K214" s="11" t="s">
-        <v>146</v>
+      <c r="B214" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D214" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I214" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J214" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K214" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B215" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D215" s="8">
+      <c r="B215" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D215" s="10">
         <v>3.5</v>
       </c>
-      <c r="E215" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F215" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G215" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H215" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I215" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J215" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K215" s="9" t="s">
+      <c r="E215" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F215" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G215" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H215" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I215" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J215" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K215" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B216" s="55" t="s">
+      <c r="B216" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" s="8">
+        <v>3</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C216" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D216" s="10">
+      <c r="G216" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H216" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I216" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J216" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" s="10">
         <v>3.5</v>
       </c>
-      <c r="E216" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F216" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G216" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H216" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I216" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J216" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K216" s="11" t="s">
+      <c r="E217" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H217" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I217" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J217" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K217" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B217" s="56" t="s">
+      <c r="B218" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D218" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H218" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I218" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J218" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K218" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B219" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H219" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I219" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J219" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K219" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B220" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D220" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F220" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G220" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I220" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J220" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K220" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B221" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D221" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H221" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I221" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J221" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K221" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B222" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D222" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F222" s="22"/>
+      <c r="G222" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H222" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I222" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J222" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K222" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B223" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F223" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H223" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I223" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J223" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K223" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D224" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E224" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F224" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C217" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D217" s="8">
-        <v>3</v>
-      </c>
-      <c r="E217" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F217" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H217" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I217" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J217" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K217" s="9" t="s">
+      <c r="G224" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H224" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K224" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B218" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D218" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="E218" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G218" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H218" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I218" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J218" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K218" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B219" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D219" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E219" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F219" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G219" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H219" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I219" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J219" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K219" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B220" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D220" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G220" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H220" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I220" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J220" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K220" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B221" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D221" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F221" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G221" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H221" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I221" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J221" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K221" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B222" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D222" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="E222" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F222" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G222" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H222" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I222" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J222" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K222" s="104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B223" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D223" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E223" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F223" s="22"/>
-      <c r="G223" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H223" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I223" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J223" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K223" s="103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B224" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D224" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="E224" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F224" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G224" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H224" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I224" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J224" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K224" s="104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D225" s="16">
+        <v>3</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F225" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H225" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J225" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K225" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B226" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C226" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D226" s="93">
+        <v>3</v>
+      </c>
+      <c r="E226" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F226" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G226" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H226" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I226" s="80"/>
+      <c r="J226" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K226" s="79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="16">
         <v>3.5</v>
       </c>
-      <c r="E225" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H225" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I225" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K225" s="103" t="s">
+      <c r="E227" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H227" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I227" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J227" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K227" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B226" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D226" s="16">
-        <v>3</v>
-      </c>
-      <c r="E226" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F226" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H226" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I226" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J226" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K226" s="103" t="s">
+      <c r="B228" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D228" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="E228" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F228" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I228" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K228" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="77" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B227" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C227" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D227" s="100">
-        <v>3</v>
-      </c>
-      <c r="E227" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="F227" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G227" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H227" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="I227" s="80"/>
-      <c r="J227" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="K227" s="110" t="s">
+      <c r="B229" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D229" s="16">
+        <v>3</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F229" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K229" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="230" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B228" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D228" s="16">
+      <c r="B230" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" s="18">
+        <v>3</v>
+      </c>
+      <c r="E230" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F230" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H230" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I230" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K230" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D231" s="16">
+        <v>1</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F231" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H231" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J231" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K231" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D232" s="18">
         <v>3.5</v>
       </c>
-      <c r="E228" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F228" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G228" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H228" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I228" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J228" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K228" s="103" t="s">
+      <c r="E232" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F232" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I232" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J232" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K232" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B229" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D229" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="E229" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F229" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H229" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I229" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J229" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K229" s="104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D230" s="16">
-        <v>3</v>
-      </c>
-      <c r="E230" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F230" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G230" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H230" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I230" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J230" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K230" s="103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B231" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D231" s="18">
-        <v>3</v>
-      </c>
-      <c r="E231" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F231" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G231" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H231" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I231" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J231" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K231" s="104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C232" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D232" s="16">
-        <v>1</v>
-      </c>
-      <c r="E232" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F232" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H232" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I232" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J232" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K232" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B233" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D233" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="E233" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F233" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G233" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H233" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I233" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J233" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K233" s="104" t="s">
+      <c r="B233" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D233" s="16">
+        <v>3</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F233" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H233" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J233" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K233" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9879,16 +9856,16 @@
         <v>109</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="D234" s="16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="F234" s="22" t="s">
         <v>43</v>
@@ -9905,253 +9882,247 @@
       <c r="J234" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K234" s="103" t="s">
+      <c r="K234" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B235" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C235" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D235" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F235" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G235" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H235" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J235" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K235" s="103" t="s">
-        <v>132</v>
+      <c r="B235" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D235" s="18">
+        <v>3</v>
+      </c>
+      <c r="E235" s="20"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I235" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J235" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K235" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B236" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D236" s="18">
-        <v>3</v>
-      </c>
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="11"/>
-      <c r="H236" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I236" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J236" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K236" s="104" t="s">
+      <c r="B236" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D236" s="8">
+        <v>3</v>
+      </c>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I236" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J236" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K236" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B237" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C237" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="83" t="s">
+      <c r="D237" s="10">
+        <v>3</v>
+      </c>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="H237" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I237" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J237" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K237" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B237" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D237" s="8">
-        <v>3</v>
-      </c>
-      <c r="E237" s="22"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="23"/>
-      <c r="H237" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I237" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J237" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K237" s="9" t="s">
+      <c r="B238" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C238" s="22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="84" t="s">
+      <c r="D238" s="8">
+        <v>3</v>
+      </c>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I238" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J238" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K238" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B238" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D238" s="10">
-        <v>3</v>
-      </c>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="H238" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I238" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J238" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K238" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B239" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C239" s="22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D239" s="8">
-        <v>3</v>
-      </c>
-      <c r="E239" s="22"/>
-      <c r="F239" s="22"/>
-      <c r="G239" s="23"/>
-      <c r="H239" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I239" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J239" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K239" s="9" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>160</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I239" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K239" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B240" s="56" t="s">
+      <c r="B240" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D240" s="8">
+      <c r="D240" s="10">
         <v>16</v>
       </c>
       <c r="E240" t="s">
+        <v>157</v>
+      </c>
+      <c r="G240" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I240" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J240" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K240" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="G240" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I240" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J240" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K240" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B241" s="84" t="s">
+      <c r="B241" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D241" s="10">
+      <c r="D241" s="8">
         <v>16</v>
       </c>
       <c r="E241" t="s">
         <v>158</v>
       </c>
-      <c r="G241" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I241" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J241" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K241" s="19" t="s">
-        <v>162</v>
+      <c r="G241" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I241" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J241" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K241" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B242" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="D242" s="8">
-        <v>16</v>
-      </c>
-      <c r="E242" t="s">
-        <v>159</v>
-      </c>
-      <c r="G242" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I242" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="J242" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K242" t="s">
-        <v>162</v>
+      <c r="B242" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C242" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D242" s="10">
+        <v>3</v>
+      </c>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H242" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I242" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J242" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K242" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B243" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C243" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D243" s="10">
-        <v>3</v>
-      </c>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
+      <c r="B243" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C243" t="s">
+        <v>282</v>
+      </c>
+      <c r="D243" s="16">
+        <v>3</v>
+      </c>
       <c r="G243" s="21" t="s">
         <v>44</v>
       </c>
@@ -10164,14 +10135,130 @@
       <c r="J243" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K243" s="21" t="s">
-        <v>135</v>
+      <c r="K243" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B244" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C244" t="s">
+        <v>282</v>
+      </c>
+      <c r="D244" s="16">
+        <v>3</v>
+      </c>
+      <c r="G244" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H244" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I244" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J244" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K244" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B245" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C245" t="s">
+        <v>282</v>
+      </c>
+      <c r="D245" s="16">
+        <v>3</v>
+      </c>
+      <c r="G245" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I245" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J245" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K245" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B246" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C246" t="s">
+        <v>282</v>
+      </c>
+      <c r="D246" s="16">
+        <v>3</v>
+      </c>
+      <c r="G246" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H246" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I246" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J246" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K246" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B247" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C247" t="s">
+        <v>282</v>
+      </c>
+      <c r="D247" s="16">
+        <v>3</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H247" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I247" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J247" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K247" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K243" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K243">
-      <sortCondition ref="A1:A243"/>
+  <autoFilter ref="A1:K242" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K242">
+      <sortCondition ref="A1:A242"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/CORE_TE.xlsx
+++ b/CORE_TE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a11f37d9971d4c/! 1.Concordia/!z - COOP director/! PYTHON/WEB_TOOL/PY_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3607A1F6-DDB4-450F-A9CE-F57B1017D9D1}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{4D67A9E0-1A6E-4B88-8F82-27FE4B21142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651CBF57-21B9-4B5C-9BC6-DAC8F062AA3E}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursses" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="342">
   <si>
     <t>ENCS 282</t>
   </si>
@@ -912,9 +912,6 @@
     <t>Restriction</t>
   </si>
   <si>
-    <t>Only students with an internhip in hand are accepted</t>
-  </si>
-  <si>
     <t>Date after which takes effect</t>
   </si>
   <si>
@@ -958,6 +955,117 @@
   </si>
   <si>
     <t>MIAE 383 (answer COMPLIANT if sequence complies to): Students admitted to Engineering before Fall 2023 should consult the March 2023 Curriculum Change Letter for ongoing transition measures in Basic and Natural Science.</t>
+  </si>
+  <si>
+    <t>Mechanical GRAD</t>
+  </si>
+  <si>
+    <t>Industrial GRAD</t>
+  </si>
+  <si>
+    <t>Aerospace GRAD</t>
+  </si>
+  <si>
+    <t>GRAD</t>
+  </si>
+  <si>
+    <t>If not already COOP planned as a WT (if not written W-1, W-2 or W-3 above), only students with an internship in hand (including WT extension) are accepted</t>
+  </si>
+  <si>
+    <t>GRAD 4001</t>
+  </si>
+  <si>
+    <t>GRAD 4002</t>
+  </si>
+  <si>
+    <t>GRAD 4003</t>
+  </si>
+  <si>
+    <t>GRAD 4004</t>
+  </si>
+  <si>
+    <t>GRAD 4005</t>
+  </si>
+  <si>
+    <t>GRAD 4006</t>
+  </si>
+  <si>
+    <t>GRAD 4007</t>
+  </si>
+  <si>
+    <t>GRAD 4008</t>
+  </si>
+  <si>
+    <t>GRAD 4009</t>
+  </si>
+  <si>
+    <t>GRAD 4010</t>
+  </si>
+  <si>
+    <t>GRAD 4011</t>
+  </si>
+  <si>
+    <t>GRAD 5001</t>
+  </si>
+  <si>
+    <t>GRAD 5002</t>
+  </si>
+  <si>
+    <t>GRAD 5003</t>
+  </si>
+  <si>
+    <t>GRAD 6001</t>
+  </si>
+  <si>
+    <t>GRAD 6002</t>
+  </si>
+  <si>
+    <t>GRAD 6003</t>
+  </si>
+  <si>
+    <t>GRAD 1001</t>
+  </si>
+  <si>
+    <t>GRAD 1002</t>
+  </si>
+  <si>
+    <t>GRAD 1003</t>
+  </si>
+  <si>
+    <t>GRAD 7001</t>
+  </si>
+  <si>
+    <t>GRAD 7002</t>
+  </si>
+  <si>
+    <t>GRAD 7003</t>
+  </si>
+  <si>
+    <t>GRAD 8001</t>
+  </si>
+  <si>
+    <t>GRAD 8002</t>
+  </si>
+  <si>
+    <t>GRAD 8003</t>
+  </si>
+  <si>
+    <t>4-credit generic course</t>
+  </si>
+  <si>
+    <t>5-credit generic course</t>
+  </si>
+  <si>
+    <t>6-credit generic course</t>
+  </si>
+  <si>
+    <t>1-credit generic course</t>
+  </si>
+  <si>
+    <t>7-credit generic course</t>
+  </si>
+  <si>
+    <t>8-credit generic course</t>
   </si>
 </sst>
 </file>
@@ -1795,19 +1903,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:U329"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A202" sqref="A202"/>
+      <selection pane="bottomRight" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="56.5703125" customWidth="1"/>
@@ -10383,6 +10491,2097 @@
       </c>
       <c r="K248" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>306</v>
+      </c>
+      <c r="B249" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D249" s="16"/>
+      <c r="G249" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I249" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J249" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K249" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>305</v>
+      </c>
+      <c r="B250" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D250" s="16"/>
+      <c r="G250" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I250" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J250" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K250" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B251" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D251" s="16"/>
+      <c r="G251" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I251" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J251" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K251" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>307</v>
+      </c>
+      <c r="B252" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C252" t="s">
+        <v>336</v>
+      </c>
+      <c r="D252" s="16">
+        <v>4</v>
+      </c>
+      <c r="G252" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I252" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J252" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K252" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>307</v>
+      </c>
+      <c r="B253" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C253" t="s">
+        <v>336</v>
+      </c>
+      <c r="D253" s="16">
+        <v>4</v>
+      </c>
+      <c r="G253" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I253" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J253" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>307</v>
+      </c>
+      <c r="B254" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C254" t="s">
+        <v>336</v>
+      </c>
+      <c r="D254" s="16">
+        <v>4</v>
+      </c>
+      <c r="G254" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I254" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J254" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K254" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>307</v>
+      </c>
+      <c r="B255" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C255" t="s">
+        <v>336</v>
+      </c>
+      <c r="D255" s="16">
+        <v>4</v>
+      </c>
+      <c r="G255" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I255" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J255" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>307</v>
+      </c>
+      <c r="B256" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C256" t="s">
+        <v>336</v>
+      </c>
+      <c r="D256" s="16">
+        <v>4</v>
+      </c>
+      <c r="G256" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I256" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J256" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>307</v>
+      </c>
+      <c r="B257" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C257" t="s">
+        <v>336</v>
+      </c>
+      <c r="D257" s="16">
+        <v>4</v>
+      </c>
+      <c r="G257" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I257" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J257" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>307</v>
+      </c>
+      <c r="B258" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C258" t="s">
+        <v>336</v>
+      </c>
+      <c r="D258" s="16">
+        <v>4</v>
+      </c>
+      <c r="G258" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I258" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J258" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>307</v>
+      </c>
+      <c r="B259" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C259" t="s">
+        <v>336</v>
+      </c>
+      <c r="D259" s="16">
+        <v>4</v>
+      </c>
+      <c r="G259" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I259" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J259" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>307</v>
+      </c>
+      <c r="B260" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C260" t="s">
+        <v>336</v>
+      </c>
+      <c r="D260" s="16">
+        <v>4</v>
+      </c>
+      <c r="G260" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I260" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J260" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K260" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>307</v>
+      </c>
+      <c r="B261" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C261" t="s">
+        <v>336</v>
+      </c>
+      <c r="D261" s="16">
+        <v>4</v>
+      </c>
+      <c r="G261" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I261" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J261" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>307</v>
+      </c>
+      <c r="B262" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C262" t="s">
+        <v>336</v>
+      </c>
+      <c r="D262" s="16">
+        <v>4</v>
+      </c>
+      <c r="G262" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I262" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J262" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>305</v>
+      </c>
+      <c r="B263" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C263" t="s">
+        <v>336</v>
+      </c>
+      <c r="D263" s="16">
+        <v>4</v>
+      </c>
+      <c r="G263" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I263" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J263" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>305</v>
+      </c>
+      <c r="B264" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C264" t="s">
+        <v>336</v>
+      </c>
+      <c r="D264" s="16">
+        <v>4</v>
+      </c>
+      <c r="G264" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I264" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J264" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>305</v>
+      </c>
+      <c r="B265" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C265" t="s">
+        <v>336</v>
+      </c>
+      <c r="D265" s="16">
+        <v>4</v>
+      </c>
+      <c r="G265" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I265" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J265" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>305</v>
+      </c>
+      <c r="B266" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C266" t="s">
+        <v>336</v>
+      </c>
+      <c r="D266" s="16">
+        <v>4</v>
+      </c>
+      <c r="G266" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I266" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J266" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K266" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>305</v>
+      </c>
+      <c r="B267" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" t="s">
+        <v>336</v>
+      </c>
+      <c r="D267" s="16">
+        <v>4</v>
+      </c>
+      <c r="G267" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I267" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J267" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>305</v>
+      </c>
+      <c r="B268" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C268" t="s">
+        <v>336</v>
+      </c>
+      <c r="D268" s="16">
+        <v>4</v>
+      </c>
+      <c r="G268" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I268" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J268" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K268" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>305</v>
+      </c>
+      <c r="B269" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C269" t="s">
+        <v>336</v>
+      </c>
+      <c r="D269" s="16">
+        <v>4</v>
+      </c>
+      <c r="G269" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I269" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J269" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K269" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>305</v>
+      </c>
+      <c r="B270" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C270" t="s">
+        <v>336</v>
+      </c>
+      <c r="D270" s="16">
+        <v>4</v>
+      </c>
+      <c r="G270" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I270" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J270" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K270" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>305</v>
+      </c>
+      <c r="B271" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C271" t="s">
+        <v>336</v>
+      </c>
+      <c r="D271" s="16">
+        <v>4</v>
+      </c>
+      <c r="G271" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I271" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J271" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>305</v>
+      </c>
+      <c r="B272" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C272" t="s">
+        <v>336</v>
+      </c>
+      <c r="D272" s="16">
+        <v>4</v>
+      </c>
+      <c r="G272" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I272" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J272" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K272" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>305</v>
+      </c>
+      <c r="B273" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C273" t="s">
+        <v>336</v>
+      </c>
+      <c r="D273" s="16">
+        <v>4</v>
+      </c>
+      <c r="G273" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I273" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J273" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>306</v>
+      </c>
+      <c r="B274" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C274" t="s">
+        <v>336</v>
+      </c>
+      <c r="D274" s="16">
+        <v>4</v>
+      </c>
+      <c r="G274" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I274" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J274" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K274" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>306</v>
+      </c>
+      <c r="B275" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C275" t="s">
+        <v>336</v>
+      </c>
+      <c r="D275" s="16">
+        <v>4</v>
+      </c>
+      <c r="G275" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I275" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J275" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>306</v>
+      </c>
+      <c r="B276" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C276" t="s">
+        <v>336</v>
+      </c>
+      <c r="D276" s="16">
+        <v>4</v>
+      </c>
+      <c r="G276" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I276" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J276" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K276" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>306</v>
+      </c>
+      <c r="B277" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C277" t="s">
+        <v>336</v>
+      </c>
+      <c r="D277" s="16">
+        <v>4</v>
+      </c>
+      <c r="G277" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I277" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J277" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K277" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>306</v>
+      </c>
+      <c r="B278" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C278" t="s">
+        <v>336</v>
+      </c>
+      <c r="D278" s="16">
+        <v>4</v>
+      </c>
+      <c r="G278" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I278" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J278" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K278" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>306</v>
+      </c>
+      <c r="B279" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C279" t="s">
+        <v>336</v>
+      </c>
+      <c r="D279" s="16">
+        <v>4</v>
+      </c>
+      <c r="G279" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I279" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J279" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K279" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>306</v>
+      </c>
+      <c r="B280" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C280" t="s">
+        <v>336</v>
+      </c>
+      <c r="D280" s="16">
+        <v>4</v>
+      </c>
+      <c r="G280" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I280" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J280" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K280" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>306</v>
+      </c>
+      <c r="B281" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C281" t="s">
+        <v>336</v>
+      </c>
+      <c r="D281" s="16">
+        <v>4</v>
+      </c>
+      <c r="G281" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I281" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J281" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K281" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>306</v>
+      </c>
+      <c r="B282" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C282" t="s">
+        <v>336</v>
+      </c>
+      <c r="D282" s="16">
+        <v>4</v>
+      </c>
+      <c r="G282" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I282" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J282" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K282" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>306</v>
+      </c>
+      <c r="B283" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C283" t="s">
+        <v>336</v>
+      </c>
+      <c r="D283" s="16">
+        <v>4</v>
+      </c>
+      <c r="G283" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I283" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J283" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K283" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>306</v>
+      </c>
+      <c r="B284" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C284" t="s">
+        <v>336</v>
+      </c>
+      <c r="D284" s="16">
+        <v>4</v>
+      </c>
+      <c r="G284" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I284" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J284" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K284" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>305</v>
+      </c>
+      <c r="B285" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C285" t="s">
+        <v>337</v>
+      </c>
+      <c r="D285" s="16">
+        <v>5</v>
+      </c>
+      <c r="G285" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I285" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J285" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>305</v>
+      </c>
+      <c r="B286" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C286" t="s">
+        <v>337</v>
+      </c>
+      <c r="D286" s="16">
+        <v>5</v>
+      </c>
+      <c r="G286" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I286" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J286" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K286" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>305</v>
+      </c>
+      <c r="B287" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C287" t="s">
+        <v>337</v>
+      </c>
+      <c r="D287" s="16">
+        <v>5</v>
+      </c>
+      <c r="G287" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I287" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J287" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>306</v>
+      </c>
+      <c r="B288" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C288" t="s">
+        <v>337</v>
+      </c>
+      <c r="D288" s="16">
+        <v>5</v>
+      </c>
+      <c r="G288" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I288" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J288" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K288" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>306</v>
+      </c>
+      <c r="B289" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C289" t="s">
+        <v>337</v>
+      </c>
+      <c r="D289" s="16">
+        <v>5</v>
+      </c>
+      <c r="G289" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I289" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J289" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>306</v>
+      </c>
+      <c r="B290" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C290" t="s">
+        <v>337</v>
+      </c>
+      <c r="D290" s="16">
+        <v>5</v>
+      </c>
+      <c r="G290" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I290" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J290" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K290" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>305</v>
+      </c>
+      <c r="B291" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" t="s">
+        <v>337</v>
+      </c>
+      <c r="D291" s="16">
+        <v>5</v>
+      </c>
+      <c r="G291" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I291" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J291" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>307</v>
+      </c>
+      <c r="B292" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292" t="s">
+        <v>337</v>
+      </c>
+      <c r="D292" s="16">
+        <v>5</v>
+      </c>
+      <c r="G292" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I292" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J292" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>307</v>
+      </c>
+      <c r="B293" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" t="s">
+        <v>337</v>
+      </c>
+      <c r="D293" s="16">
+        <v>5</v>
+      </c>
+      <c r="G293" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I293" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J293" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>305</v>
+      </c>
+      <c r="B294" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" t="s">
+        <v>338</v>
+      </c>
+      <c r="D294" s="16">
+        <v>6</v>
+      </c>
+      <c r="G294" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I294" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J294" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K294" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>305</v>
+      </c>
+      <c r="B295" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C295" t="s">
+        <v>338</v>
+      </c>
+      <c r="D295" s="16">
+        <v>6</v>
+      </c>
+      <c r="G295" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I295" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J295" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>305</v>
+      </c>
+      <c r="B296" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C296" t="s">
+        <v>338</v>
+      </c>
+      <c r="D296" s="16">
+        <v>6</v>
+      </c>
+      <c r="G296" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I296" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J296" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K296" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>306</v>
+      </c>
+      <c r="B297" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C297" t="s">
+        <v>338</v>
+      </c>
+      <c r="D297" s="16">
+        <v>6</v>
+      </c>
+      <c r="G297" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I297" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J297" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C298" t="s">
+        <v>338</v>
+      </c>
+      <c r="D298" s="16">
+        <v>6</v>
+      </c>
+      <c r="G298" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I298" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J298" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K298" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C299" t="s">
+        <v>338</v>
+      </c>
+      <c r="D299" s="16">
+        <v>6</v>
+      </c>
+      <c r="G299" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I299" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J299" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C300" t="s">
+        <v>338</v>
+      </c>
+      <c r="D300" s="16">
+        <v>6</v>
+      </c>
+      <c r="G300" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I300" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J300" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K300" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C301" t="s">
+        <v>338</v>
+      </c>
+      <c r="D301" s="16">
+        <v>6</v>
+      </c>
+      <c r="G301" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I301" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J301" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>307</v>
+      </c>
+      <c r="B302" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C302" t="s">
+        <v>338</v>
+      </c>
+      <c r="D302" s="16">
+        <v>6</v>
+      </c>
+      <c r="G302" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I302" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J302" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K302" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C303" t="s">
+        <v>339</v>
+      </c>
+      <c r="D303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I303" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J303" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C304" t="s">
+        <v>339</v>
+      </c>
+      <c r="D304" s="16">
+        <v>1</v>
+      </c>
+      <c r="G304" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I304" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J304" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K304" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C305" t="s">
+        <v>339</v>
+      </c>
+      <c r="D305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I305" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J305" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C306" t="s">
+        <v>339</v>
+      </c>
+      <c r="D306" s="16">
+        <v>1</v>
+      </c>
+      <c r="G306" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I306" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J306" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K306" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C307" t="s">
+        <v>339</v>
+      </c>
+      <c r="D307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I307" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J307" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C308" t="s">
+        <v>339</v>
+      </c>
+      <c r="D308" s="16">
+        <v>1</v>
+      </c>
+      <c r="G308" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I308" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J308" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K308" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>305</v>
+      </c>
+      <c r="B309" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C309" t="s">
+        <v>339</v>
+      </c>
+      <c r="D309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I309" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J309" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>307</v>
+      </c>
+      <c r="B310" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C310" t="s">
+        <v>339</v>
+      </c>
+      <c r="D310" s="16">
+        <v>1</v>
+      </c>
+      <c r="G310" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I310" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J310" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>307</v>
+      </c>
+      <c r="B311" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C311" t="s">
+        <v>339</v>
+      </c>
+      <c r="D311" s="16">
+        <v>1</v>
+      </c>
+      <c r="G311" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I311" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J311" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>305</v>
+      </c>
+      <c r="B312" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C312" t="s">
+        <v>340</v>
+      </c>
+      <c r="D312" s="16">
+        <v>7</v>
+      </c>
+      <c r="G312" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I312" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J312" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>305</v>
+      </c>
+      <c r="B313" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C313" t="s">
+        <v>340</v>
+      </c>
+      <c r="D313" s="16">
+        <v>7</v>
+      </c>
+      <c r="G313" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I313" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J313" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>305</v>
+      </c>
+      <c r="B314" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C314" t="s">
+        <v>340</v>
+      </c>
+      <c r="D314" s="16">
+        <v>7</v>
+      </c>
+      <c r="G314" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I314" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J314" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K314" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>306</v>
+      </c>
+      <c r="B315" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C315" t="s">
+        <v>340</v>
+      </c>
+      <c r="D315" s="16">
+        <v>7</v>
+      </c>
+      <c r="G315" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I315" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J315" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>306</v>
+      </c>
+      <c r="B316" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C316" t="s">
+        <v>340</v>
+      </c>
+      <c r="D316" s="16">
+        <v>7</v>
+      </c>
+      <c r="G316" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I316" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J316" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K316" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>306</v>
+      </c>
+      <c r="B317" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C317" t="s">
+        <v>340</v>
+      </c>
+      <c r="D317" s="16">
+        <v>7</v>
+      </c>
+      <c r="G317" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I317" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J317" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>305</v>
+      </c>
+      <c r="B318" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C318" t="s">
+        <v>340</v>
+      </c>
+      <c r="D318" s="16">
+        <v>7</v>
+      </c>
+      <c r="G318" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I318" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J318" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K318" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>307</v>
+      </c>
+      <c r="B319" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C319" t="s">
+        <v>340</v>
+      </c>
+      <c r="D319" s="16">
+        <v>7</v>
+      </c>
+      <c r="G319" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I319" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J319" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K319" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>307</v>
+      </c>
+      <c r="B320" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C320" t="s">
+        <v>340</v>
+      </c>
+      <c r="D320" s="16">
+        <v>7</v>
+      </c>
+      <c r="G320" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I320" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J320" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K320" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>305</v>
+      </c>
+      <c r="B321" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C321" t="s">
+        <v>341</v>
+      </c>
+      <c r="D321" s="16">
+        <v>8</v>
+      </c>
+      <c r="G321" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I321" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J321" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K321" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>305</v>
+      </c>
+      <c r="B322" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C322" t="s">
+        <v>341</v>
+      </c>
+      <c r="D322" s="16">
+        <v>8</v>
+      </c>
+      <c r="G322" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I322" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J322" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K322" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>305</v>
+      </c>
+      <c r="B323" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C323" t="s">
+        <v>341</v>
+      </c>
+      <c r="D323" s="16">
+        <v>8</v>
+      </c>
+      <c r="G323" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I323" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J323" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K323" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>306</v>
+      </c>
+      <c r="B324" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C324" t="s">
+        <v>341</v>
+      </c>
+      <c r="D324" s="16">
+        <v>8</v>
+      </c>
+      <c r="G324" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I324" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J324" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K324" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>306</v>
+      </c>
+      <c r="B325" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C325" t="s">
+        <v>341</v>
+      </c>
+      <c r="D325" s="16">
+        <v>8</v>
+      </c>
+      <c r="G325" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I325" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J325" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K325" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>306</v>
+      </c>
+      <c r="B326" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C326" t="s">
+        <v>341</v>
+      </c>
+      <c r="D326" s="16">
+        <v>8</v>
+      </c>
+      <c r="G326" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I326" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J326" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K326" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>305</v>
+      </c>
+      <c r="B327" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C327" t="s">
+        <v>341</v>
+      </c>
+      <c r="D327" s="16">
+        <v>8</v>
+      </c>
+      <c r="G327" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I327" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J327" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K327" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>307</v>
+      </c>
+      <c r="B328" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C328" t="s">
+        <v>341</v>
+      </c>
+      <c r="D328" s="16">
+        <v>8</v>
+      </c>
+      <c r="G328" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I328" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J328" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K328" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>307</v>
+      </c>
+      <c r="B329" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C329" t="s">
+        <v>341</v>
+      </c>
+      <c r="D329" s="16">
+        <v>8</v>
+      </c>
+      <c r="G329" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I329" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J329" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K329" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -10408,8 +12607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D01CF3-C1DE-477D-B94F-245AB2B987BD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10423,13 +12622,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>285</v>
@@ -10444,18 +12643,18 @@
         <v>289</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="117">
         <v>46055</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>288</v>
@@ -10464,24 +12663,24 @@
         <v>161</v>
       </c>
       <c r="G2" s="116" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>218</v>
       </c>
       <c r="G3" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10489,58 +12688,58 @@
         <v>288</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>218</v>
       </c>
       <c r="G5" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>218</v>
       </c>
       <c r="G6" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>288</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
